--- a/branches/mpd-r4b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:51:53+00:00</t>
+    <t>2022-11-18T19:52:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:52:09+00:00</t>
+    <t>2022-11-18T19:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7075" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7076" uniqueCount="600">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:57:45+00:00</t>
+    <t>2022-11-19T06:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1458,8 +1458,11 @@
     <t>EMA IG 1.14.3. Name part. Product names are usually combined of these three parts. More parts can be defined and strength and dose form parts can be omitted.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:part.type.coding.code}
+    <t xml:space="preserve">pattern:type}
 </t>
+  </si>
+  <si>
+    <t>Slicing on the name part</t>
   </si>
   <si>
     <t>(any and all of the name parts e.g. Medicinal Product Name.Formulation Part)</t>
@@ -2205,7 +2208,7 @@
     <col min="24" max="24" width="122.328125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="63.3203125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="29.75" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.9375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
@@ -14889,7 +14892,9 @@
       <c r="AA118" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AB118" s="2"/>
+      <c r="AB118" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="AC118" t="s" s="2">
         <v>83</v>
       </c>
@@ -14912,7 +14917,7 @@
         <v>423</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>73</v>
@@ -14923,7 +14928,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15029,7 +15034,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15137,7 +15142,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15247,7 +15252,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15273,10 +15278,10 @@
         <v>189</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -15327,7 +15332,7 @@
         <v>73</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>82</v>
@@ -15342,7 +15347,7 @@
         <v>94</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>73</v>
@@ -15353,7 +15358,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15379,10 +15384,10 @@
         <v>171</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -15412,10 +15417,10 @@
         <v>216</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>73</v>
@@ -15433,7 +15438,7 @@
         <v>73</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>82</v>
@@ -15448,7 +15453,7 @@
         <v>94</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>73</v>
@@ -15462,7 +15467,7 @@
         <v>464</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C124" t="s" s="2">
         <v>73</v>
@@ -15487,10 +15492,10 @@
         <v>420</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
@@ -15556,7 +15561,7 @@
         <v>423</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AK124" t="s" s="2">
         <v>73</v>
@@ -15567,7 +15572,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15673,7 +15678,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15781,7 +15786,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15891,7 +15896,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -15917,10 +15922,10 @@
         <v>189</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -15971,7 +15976,7 @@
         <v>73</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>82</v>
@@ -15986,7 +15991,7 @@
         <v>94</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>73</v>
@@ -15997,7 +16002,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -16023,10 +16028,10 @@
         <v>171</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
@@ -16038,7 +16043,7 @@
         <v>73</v>
       </c>
       <c r="R129" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="S129" t="s" s="2">
         <v>73</v>
@@ -16056,10 +16061,10 @@
         <v>216</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Z129" t="s" s="2">
         <v>73</v>
@@ -16077,7 +16082,7 @@
         <v>73</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>82</v>
@@ -16092,7 +16097,7 @@
         <v>94</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>73</v>
@@ -16106,7 +16111,7 @@
         <v>464</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C130" t="s" s="2">
         <v>73</v>
@@ -16131,10 +16136,10 @@
         <v>420</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
@@ -16200,7 +16205,7 @@
         <v>423</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>73</v>
@@ -16211,7 +16216,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -16317,7 +16322,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -16425,7 +16430,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -16535,7 +16540,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -16561,10 +16566,10 @@
         <v>189</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -16615,7 +16620,7 @@
         <v>73</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>82</v>
@@ -16630,7 +16635,7 @@
         <v>94</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AK134" t="s" s="2">
         <v>73</v>
@@ -16641,7 +16646,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -16667,10 +16672,10 @@
         <v>171</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -16682,7 +16687,7 @@
         <v>73</v>
       </c>
       <c r="R135" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="S135" t="s" s="2">
         <v>73</v>
@@ -16700,10 +16705,10 @@
         <v>216</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Z135" t="s" s="2">
         <v>73</v>
@@ -16721,7 +16726,7 @@
         <v>73</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>82</v>
@@ -16736,7 +16741,7 @@
         <v>94</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>73</v>
@@ -16750,7 +16755,7 @@
         <v>464</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C136" t="s" s="2">
         <v>73</v>
@@ -16775,10 +16780,10 @@
         <v>420</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
@@ -16844,7 +16849,7 @@
         <v>423</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>73</v>
@@ -16855,7 +16860,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -16961,7 +16966,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17069,7 +17074,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17179,7 +17184,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -17205,10 +17210,10 @@
         <v>189</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -17259,7 +17264,7 @@
         <v>73</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>82</v>
@@ -17274,7 +17279,7 @@
         <v>94</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>73</v>
@@ -17285,7 +17290,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -17311,10 +17316,10 @@
         <v>171</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -17326,7 +17331,7 @@
         <v>73</v>
       </c>
       <c r="R141" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="S141" t="s" s="2">
         <v>73</v>
@@ -17344,10 +17349,10 @@
         <v>216</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Z141" t="s" s="2">
         <v>73</v>
@@ -17365,7 +17370,7 @@
         <v>73</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>82</v>
@@ -17380,7 +17385,7 @@
         <v>94</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>73</v>
@@ -17391,7 +17396,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -17417,10 +17422,10 @@
         <v>420</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
@@ -17471,7 +17476,7 @@
         <v>73</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>74</v>
@@ -17486,7 +17491,7 @@
         <v>423</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>73</v>
@@ -17497,7 +17502,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -17603,7 +17608,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -17711,7 +17716,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -17821,7 +17826,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -17847,10 +17852,10 @@
         <v>171</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -17880,10 +17885,10 @@
         <v>216</v>
       </c>
       <c r="X146" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Y146" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Z146" t="s" s="2">
         <v>73</v>
@@ -17901,7 +17906,7 @@
         <v>73</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>82</v>
@@ -17916,7 +17921,7 @@
         <v>94</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AK146" t="s" s="2">
         <v>73</v>
@@ -17927,7 +17932,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -18033,7 +18038,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -18141,7 +18146,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -18167,7 +18172,7 @@
         <v>238</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L149" t="s" s="2">
         <v>240</v>
@@ -18249,7 +18254,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>375</v>
@@ -18361,7 +18366,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -18467,7 +18472,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -18575,7 +18580,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -18620,7 +18625,7 @@
         <v>73</v>
       </c>
       <c r="R153" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="S153" t="s" s="2">
         <v>73</v>
@@ -18685,7 +18690,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -18793,7 +18798,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -18901,7 +18906,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -19009,7 +19014,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -19119,10 +19124,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C158" t="s" s="2">
         <v>73</v>
@@ -19231,7 +19236,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -19337,7 +19342,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -19445,7 +19450,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -19490,7 +19495,7 @@
         <v>73</v>
       </c>
       <c r="R161" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="S161" t="s" s="2">
         <v>73</v>
@@ -19555,7 +19560,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -19663,7 +19668,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -19771,7 +19776,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -19879,7 +19884,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -19989,7 +19994,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -20099,7 +20104,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -20125,10 +20130,10 @@
         <v>171</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
@@ -20158,10 +20163,10 @@
         <v>216</v>
       </c>
       <c r="X167" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Y167" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Z167" t="s" s="2">
         <v>73</v>
@@ -20179,7 +20184,7 @@
         <v>73</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>74</v>
@@ -20194,7 +20199,7 @@
         <v>94</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AK167" t="s" s="2">
         <v>73</v>
@@ -20205,7 +20210,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -20231,10 +20236,10 @@
         <v>171</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
@@ -20285,7 +20290,7 @@
         <v>73</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>82</v>
@@ -20300,7 +20305,7 @@
         <v>94</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AK168" t="s" s="2">
         <v>73</v>
@@ -20311,7 +20316,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -20417,7 +20422,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -20525,7 +20530,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -20551,7 +20556,7 @@
         <v>238</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L171" t="s" s="2">
         <v>240</v>
@@ -20633,7 +20638,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>375</v>
@@ -20745,7 +20750,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -20851,7 +20856,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -20959,7 +20964,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -21004,7 +21009,7 @@
         <v>73</v>
       </c>
       <c r="R175" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="S175" t="s" s="2">
         <v>73</v>
@@ -21069,7 +21074,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -21177,7 +21182,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -21285,7 +21290,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -21393,7 +21398,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -21503,10 +21508,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C180" t="s" s="2">
         <v>73</v>
@@ -21615,7 +21620,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -21721,7 +21726,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -21829,7 +21834,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -21874,7 +21879,7 @@
         <v>73</v>
       </c>
       <c r="R183" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="S183" t="s" s="2">
         <v>73</v>
@@ -21939,7 +21944,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -22047,7 +22052,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -22155,7 +22160,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -22263,7 +22268,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -22373,7 +22378,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -22483,7 +22488,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -22509,10 +22514,10 @@
         <v>420</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M189" s="2"/>
       <c r="N189" s="2"/>
@@ -22563,7 +22568,7 @@
         <v>73</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>74</v>
@@ -22578,7 +22583,7 @@
         <v>423</v>
       </c>
       <c r="AJ189" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AK189" t="s" s="2">
         <v>73</v>
@@ -22589,7 +22594,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -22695,7 +22700,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -22803,7 +22808,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -22913,7 +22918,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -22936,13 +22941,13 @@
         <v>83</v>
       </c>
       <c r="J193" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
@@ -22993,7 +22998,7 @@
         <v>73</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>82</v>
@@ -23008,7 +23013,7 @@
         <v>94</v>
       </c>
       <c r="AJ193" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AK193" t="s" s="2">
         <v>73</v>
@@ -23019,7 +23024,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -23045,10 +23050,10 @@
         <v>171</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M194" s="2"/>
       <c r="N194" s="2"/>
@@ -23081,7 +23086,7 @@
         <v>434</v>
       </c>
       <c r="Y194" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Z194" t="s" s="2">
         <v>73</v>
@@ -23099,7 +23104,7 @@
         <v>73</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>74</v>
@@ -23114,7 +23119,7 @@
         <v>94</v>
       </c>
       <c r="AJ194" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AK194" t="s" s="2">
         <v>73</v>
@@ -23125,7 +23130,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -23151,10 +23156,10 @@
         <v>420</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M195" s="2"/>
       <c r="N195" s="2"/>
@@ -23205,7 +23210,7 @@
         <v>73</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>74</v>
@@ -23220,7 +23225,7 @@
         <v>423</v>
       </c>
       <c r="AJ195" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AK195" t="s" s="2">
         <v>73</v>
@@ -23231,7 +23236,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -23337,7 +23342,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -23445,7 +23450,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -23555,7 +23560,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -23578,13 +23583,13 @@
         <v>83</v>
       </c>
       <c r="J199" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M199" s="2"/>
       <c r="N199" s="2"/>
@@ -23635,7 +23640,7 @@
         <v>73</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>74</v>
@@ -23650,7 +23655,7 @@
         <v>94</v>
       </c>
       <c r="AJ199" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AK199" t="s" s="2">
         <v>73</v>
@@ -23661,7 +23666,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -23687,10 +23692,10 @@
         <v>197</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M200" s="2"/>
       <c r="N200" s="2"/>
@@ -23741,7 +23746,7 @@
         <v>73</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>74</v>
@@ -23756,7 +23761,7 @@
         <v>94</v>
       </c>
       <c r="AJ200" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AK200" t="s" s="2">
         <v>73</v>
@@ -23767,7 +23772,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -23793,10 +23798,10 @@
         <v>203</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M201" s="2"/>
       <c r="N201" s="2"/>
@@ -23847,7 +23852,7 @@
         <v>73</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>74</v>
@@ -23862,7 +23867,7 @@
         <v>94</v>
       </c>
       <c r="AJ201" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AK201" t="s" s="2">
         <v>73</v>
@@ -23873,7 +23878,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -23899,10 +23904,10 @@
         <v>171</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M202" s="2"/>
       <c r="N202" s="2"/>
@@ -23932,10 +23937,10 @@
         <v>216</v>
       </c>
       <c r="X202" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="Y202" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="Z202" t="s" s="2">
         <v>73</v>
@@ -23953,7 +23958,7 @@
         <v>73</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>74</v>
@@ -23968,7 +23973,7 @@
         <v>94</v>
       </c>
       <c r="AJ202" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AK202" t="s" s="2">
         <v>73</v>
@@ -23979,7 +23984,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -24005,10 +24010,10 @@
         <v>420</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M203" s="2"/>
       <c r="N203" s="2"/>
@@ -24059,7 +24064,7 @@
         <v>73</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>74</v>
@@ -24074,7 +24079,7 @@
         <v>423</v>
       </c>
       <c r="AJ203" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AK203" t="s" s="2">
         <v>73</v>
@@ -24085,7 +24090,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -24191,7 +24196,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -24299,7 +24304,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -24409,7 +24414,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -24435,10 +24440,10 @@
         <v>171</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M207" s="2"/>
       <c r="N207" s="2"/>
@@ -24468,10 +24473,10 @@
         <v>216</v>
       </c>
       <c r="X207" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="Y207" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Z207" t="s" s="2">
         <v>73</v>
@@ -24489,7 +24494,7 @@
         <v>73</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AF207" t="s" s="2">
         <v>82</v>
@@ -24504,7 +24509,7 @@
         <v>94</v>
       </c>
       <c r="AJ207" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AK207" t="s" s="2">
         <v>73</v>
@@ -24515,7 +24520,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -24538,13 +24543,13 @@
         <v>83</v>
       </c>
       <c r="J208" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M208" s="2"/>
       <c r="N208" s="2"/>
@@ -24595,7 +24600,7 @@
         <v>73</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>74</v>
@@ -24610,7 +24615,7 @@
         <v>94</v>
       </c>
       <c r="AJ208" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AK208" t="s" s="2">
         <v>73</v>

--- a/branches/mpd-r4b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7076" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7075" uniqueCount="600">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T06:10:15+00:00</t>
+    <t>2022-11-19T22:26:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1055,13 +1055,13 @@
     <t>MedicinalProductDefinition.legalStatusOfSupply.coding.system</t>
   </si>
   <si>
-    <t>http://spor.ema.europa.eu/v1/lists/100000072051</t>
-  </si>
-  <si>
     <t>MedicinalProductDefinition.legalStatusOfSupply.coding.version</t>
   </si>
   <si>
     <t>MedicinalProductDefinition.legalStatusOfSupply.coding.code</t>
+  </si>
+  <si>
+    <t>http://unicom-project.eu/fhir/ValueSet/legal-status-for-the-supply-vs</t>
   </si>
   <si>
     <t>MedicinalProductDefinition.legalStatusOfSupply.coding.display</t>
@@ -2206,7 +2206,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="122.328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.3203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.44140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.9375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -9379,7 +9379,7 @@
         <v>73</v>
       </c>
       <c r="R67" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
       <c r="S67" t="s" s="2">
         <v>73</v>
@@ -9444,7 +9444,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9552,7 +9552,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9610,13 +9610,11 @@
         <v>73</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="X69" s="2"/>
       <c r="Y69" t="s" s="2">
-        <v>73</v>
+        <v>338</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>73</v>

--- a/branches/mpd-r4b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T22:26:15+00:00</t>
+    <t>2022-11-19T22:53:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T22:53:07+00:00</t>
+    <t>2022-11-20T07:00:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T07:00:59+00:00</t>
+    <t>2022-11-20T07:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T07:03:41+00:00</t>
+    <t>2022-11-20T09:28:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7075" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7074" uniqueCount="598">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T09:28:17+00:00</t>
+    <t>2022-11-20T17:12:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -706,819 +706,807 @@
     <t>EMA IG 1.3</t>
   </si>
   <si>
+    <t>http://unicom-project.eu/fhir/ValueSet/domain-vs</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.version</t>
+  </si>
+  <si>
+    <t>A business identifier relating to a specific version of the product</t>
+  </si>
+  <si>
+    <t>A business identifier relating to a specific version of the product, this is commonly used to support revisions to an existing product.</t>
+  </si>
+  <si>
+    <t>Medicinal Product.Header.Version Number</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.status</t>
+  </si>
+  <si>
+    <t>Status of the product's data. Default 200000005004 'Current'</t>
+  </si>
+  <si>
+    <t>The status within the lifecycle of this product record. A high-level status, this is not intended to duplicate details carried elsewhere such as legal status, or authorization status.</t>
+  </si>
+  <si>
+    <t>The lifecycle status of an artifact.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/publication-status</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.status.id</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.status.extension</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.status.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.status.coding.id</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.status.coding.extension</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.status.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>https://spor.ema.europa.eu/v1/lists/200000005003</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.status.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.status.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.status.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.status.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.status.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.statusDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>The date at which the given status became applicable</t>
+  </si>
+  <si>
+    <t>The date at which the given status became applicable.</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">markdown
+</t>
+  </si>
+  <si>
+    <t>General description of this product</t>
+  </si>
+  <si>
+    <t>General description of this product.</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.combinedPharmaceuticalDoseForm</t>
+  </si>
+  <si>
+    <t>Authorised dose form for the product, incl combination package dose forms</t>
+  </si>
+  <si>
+    <t>EMA IG 1.5 &amp; 1.6. Authorised dose form for the whole product. As applicable in one of the SPOR RMS list Combined pharmaceutical dose form, Pharmaceutical dose form, Combined term, Combination Package</t>
+  </si>
+  <si>
+    <t>Dose forms for a product as a whole, considering all individual parts, but before any mixing</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/combined-dose-form</t>
+  </si>
+  <si>
+    <t>Medicinal Product.Combined Pharmaceutical Dose Form</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.combinedPharmaceuticalDoseForm.id</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.combinedPharmaceuticalDoseForm.extension</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.combinedPharmaceuticalDoseForm.coding</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.combinedPharmaceuticalDoseForm.coding.id</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.combinedPharmaceuticalDoseForm.coding.extension</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.combinedPharmaceuticalDoseForm.coding.system</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.combinedPharmaceuticalDoseForm.coding.version</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.combinedPharmaceuticalDoseForm.coding.code</t>
+  </si>
+  <si>
+    <t>http://unicom-project.eu/fhir/ValueSet/authorised-doseform-vs</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.combinedPharmaceuticalDoseForm.coding.display</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.combinedPharmaceuticalDoseForm.coding.userSelected</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.combinedPharmaceuticalDoseForm.text</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.route</t>
+  </si>
+  <si>
+    <t>The path by which the product is taken into or makes contact with the body</t>
+  </si>
+  <si>
+    <t>The path by which the product is taken into or makes contact with the body. In some regions this is referred to as the licenced or approved route. See also AdministrableProductDefinition resource. MedicinalProductDefinition.route is the same concept as AdministrableProductDefinition.routeOfAdministration.code, and they cannot be used together.</t>
+  </si>
+  <si>
+    <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
+  </si>
+  <si>
+    <t>Pharmaceutical Product.Route of Administration</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.indication</t>
+  </si>
+  <si>
+    <t>Description of indication(s) for this product, used when structured indications are not required</t>
+  </si>
+  <si>
+    <t>Description of indication(s) for this product, used when structured indications are not required. In cases where structured indications are required, they are captured using the ClinicalUseDefinition resource. An indication is a medical situation for which using the product is appropriate.</t>
+  </si>
+  <si>
+    <t>(roll up of all text in Therapeutic Indication.Indication Text, for common case where information is not granular)</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.legalStatusOfSupply</t>
+  </si>
+  <si>
+    <t>Legal status of supply on the medicinal product level.</t>
+  </si>
+  <si>
+    <t>EMA IG 1.7. Legal status of supply on the medicinal product level. The same information can be repeated/differentiated on the package level</t>
+  </si>
+  <si>
+    <t>The prescription supply types appropriate to a medicinal product</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/legal-status-of-supply</t>
+  </si>
+  <si>
+    <t>Marketing Authorisation.Legal Status of Supply (moved here for practicality)</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.legalStatusOfSupply.id</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.legalStatusOfSupply.extension</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.legalStatusOfSupply.coding</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.legalStatusOfSupply.coding.id</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.legalStatusOfSupply.coding.extension</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.legalStatusOfSupply.coding.system</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.legalStatusOfSupply.coding.version</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.legalStatusOfSupply.coding.code</t>
+  </si>
+  <si>
+    <t>http://unicom-project.eu/fhir/ValueSet/legal-status-for-the-supply-vs</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.legalStatusOfSupply.coding.display</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.legalStatusOfSupply.coding.userSelected</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.legalStatusOfSupply.text</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.additionalMonitoringIndicator</t>
+  </si>
+  <si>
+    <t>Whether the Medicinal Product is subject to additional monitoring for regulatory reasons</t>
+  </si>
+  <si>
+    <t>Whether the Medicinal Product is subject to additional monitoring for regulatory reasons, such as heightened reporting requirements.</t>
+  </si>
+  <si>
+    <t>Extra measures defined for a Medicinal Product, such as heightened reporting requirements (e.g. Black Triangle Monitoring).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medicinal-product-additional-monitoring</t>
+  </si>
+  <si>
+    <t>Medicinal Product.Additional Monitoring Indicator</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.specialMeasures</t>
+  </si>
+  <si>
+    <t>Whether the Medicinal Product is subject to special measures for regulatory reasons</t>
+  </si>
+  <si>
+    <t>Whether the Medicinal Product is subject to special measures for regulatory reasons, such as a requirement to conduct post-authorisation studies.</t>
+  </si>
+  <si>
+    <t>Extra measures defined for a Medicinal Product, such as a requirement to conduct post-authorisation studies.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medicinal-product-special-measures</t>
+  </si>
+  <si>
+    <t>Medicinal Product.Special Measures</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.pediatricUseIndicator</t>
+  </si>
+  <si>
+    <t>If authorised for use in children</t>
+  </si>
+  <si>
+    <t>If authorised for use in children, or infants, neonates etc.</t>
+  </si>
+  <si>
+    <t>Suitability for age groups, in particular children.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medicinal-product-pediatric-use</t>
+  </si>
+  <si>
+    <t>Medicinal Product.Pediatric Use Indicator</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.classification</t>
+  </si>
+  <si>
+    <t>ATC or other classification</t>
+  </si>
+  <si>
+    <t>EMA IG 1.13</t>
+  </si>
+  <si>
+    <t>This value set includes codes from the Anatomical Therapeutic Chemical Classification System - provided as an exemplar value set.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/product-classification-codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:coding.system}
+</t>
+  </si>
+  <si>
+    <t>Product Classification.Value</t>
+  </si>
+  <si>
+    <t>atc</t>
+  </si>
+  <si>
+    <t>Allows the product to be classified by various systems</t>
+  </si>
+  <si>
+    <t>Allows the product to be classified by various systems, commonly WHO ATC.</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.classification.id</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.classification.extension</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.classification.coding</t>
+  </si>
+  <si>
+    <t>ATC classification</t>
+  </si>
+  <si>
+    <t>EMA IG 1.13.3</t>
+  </si>
+  <si>
+    <t>ema</t>
+  </si>
+  <si>
+    <t>ATC classification as EMA SPOR code</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.classification.coding.id</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.classification.coding.extension</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.classification.coding.system</t>
+  </si>
+  <si>
+    <t>https://spor.ema.europa.eu/v1/lists/100000093533</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.classification.coding.version</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.classification.coding.code</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.classification.coding.display</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.classification.coding.userSelected</t>
+  </si>
+  <si>
+    <t>who</t>
+  </si>
+  <si>
+    <t>ATC classification as WHO ATC code</t>
+  </si>
+  <si>
+    <t>http://www.whocc.no/atc</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.classification.text</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.marketingStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MarketingStatus
+</t>
+  </si>
+  <si>
+    <t>Marketing status of the medicinal product, in contrast to marketing authorization</t>
+  </si>
+  <si>
+    <t>Marketing status of the medicinal product, in contrast to marketing authorization. This refers to the product being actually 'on the market' as opposed to being allowed to be on the market (which is an authorization).</t>
+  </si>
+  <si>
+    <t>Marketing Status</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.packagedMedicinalProduct</t>
+  </si>
+  <si>
+    <t>Package type for the product</t>
+  </si>
+  <si>
+    <t>Package type for the product. See also the PackagedProductDefinition resource.</t>
+  </si>
+  <si>
+    <t>Types of medicinal product packs</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medicinal-product-package-type</t>
+  </si>
+  <si>
+    <t>Packaged Medicinal Product</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.ingredient</t>
+  </si>
+  <si>
+    <t>The ingredients of this medicinal product - when not detailed in other resources</t>
+  </si>
+  <si>
+    <t>The ingredients of this medicinal product - when not detailed in other resources. This is only needed if the ingredients are not specified by incoming references from the Ingredient resource, or indirectly via incoming AdministrableProductDefinition, PackagedProductDefinition or ManufacturedItemDefinition references. In cases where those levels of detail are not used, the ingredients may be specified directly here as codes.</t>
+  </si>
+  <si>
+    <t>This value set includes all substance codes from SNOMED CT - provided as an exemplar value set.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/substance-codes</t>
+  </si>
+  <si>
+    <t>Medicinal Product.Ingredient (see also FHIR Ingredient resource)</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.impurity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableReference(SubstanceDefinition)
+</t>
+  </si>
+  <si>
+    <t>Any component of the drug product which is not the chemical entity defined as the drug substance, or an excipient in the drug product</t>
+  </si>
+  <si>
+    <t>Any component of the drug product which is not the chemical entity defined as the drug substance, or an excipient in the drug product. This includes process-related impurities and contaminants, product-related impurities including degradation products.</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.attachedDocument</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(DocumentReference)
+</t>
+  </si>
+  <si>
+    <t>Additional documentation about the medicinal product</t>
+  </si>
+  <si>
+    <t>Additional information or supporting documentation about the medicinal product.</t>
+  </si>
+  <si>
+    <t>Attached Document</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.masterFile</t>
+  </si>
+  <si>
+    <t>A master file for the medicinal product (e.g. Pharmacovigilance System Master File)</t>
+  </si>
+  <si>
+    <t>A master file for the medicinal product (e.g. Pharmacovigilance System Master File). Drug master files (DMFs) are documents submitted to regulatory agencies to provide confidential detailed information about facilities, processes or articles used in the manufacturing, processing, packaging and storing of drug products.</t>
+  </si>
+  <si>
+    <t>Master File</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>A product specific contact, person (in a role), or an organization</t>
+  </si>
+  <si>
+    <t>A product specific contact, person (in a role), or an organization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
+</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.contact.id</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.contact.extension</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.contact.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.contact.type</t>
+  </si>
+  <si>
+    <t>Allows the contact to be classified, for example QPPV, Pharmacovigilance Enquiry Information</t>
+  </si>
+  <si>
+    <t>Allows the contact to be classified, for example QPPV, Pharmacovigilance Enquiry Information.</t>
+  </si>
+  <si>
+    <t>Extra measures defined for a Medicinal Product, such as heightened reporting requirements.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medicinal-product-contact-type</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.contact.contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|PractitionerRole)
+</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.clinicalTrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(ResearchStudy)
+</t>
+  </si>
+  <si>
+    <t>Clinical trials or studies that this product is involved in</t>
+  </si>
+  <si>
+    <t>Clinical trials or studies that this product is involved in.</t>
+  </si>
+  <si>
+    <t>Investigational Medicinal Product.Clinical Trial Status</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.code</t>
+  </si>
+  <si>
+    <t>A code that this product is known by, within some formal terminology</t>
+  </si>
+  <si>
+    <t>A code that this product is known by, usually within some formal terminology, perhaps assigned by a third party (i.e. not the manufacturer or regulator). Products (types of medications) tend to be known by identifiers during development and within regulatory process. However when they are prescribed they tend to be identified by codes. The same product may be have multiple codes, applied to it by multiple organizations.</t>
+  </si>
+  <si>
+    <t>A coded concept that defines the type of a medication.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.name</t>
+  </si>
+  <si>
+    <t>The product's name, including full name and possibly coded parts</t>
+  </si>
+  <si>
+    <t>EMA IG 1.14</t>
+  </si>
+  <si>
+    <t>Medicinal Product Name</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.name.id</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.name.extension</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.name.modifierExtension</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.name.productName</t>
+  </si>
+  <si>
+    <t>The full product name</t>
+  </si>
+  <si>
+    <t>EMA IG 1.14.1</t>
+  </si>
+  <si>
+    <t>Medicinal Product Name.Full Name</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.name.type</t>
+  </si>
+  <si>
+    <t>Type of product name, such as rINN, BAN, Proprietary, Non-Proprietary</t>
+  </si>
+  <si>
+    <t>Type of product name, such as rINN, BAN, Proprietary, Non-Proprietary.</t>
+  </si>
+  <si>
+    <t>Type of a name for a Medicinal Product.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medicinal-product-name-type</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.name.namePart</t>
+  </si>
+  <si>
+    <t>Medicinal product name part</t>
+  </si>
+  <si>
+    <t>EMA IG 1.14.3. Name part. Product names are usually combined of these three parts. More parts can be defined and strength and dose form parts can be omitted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:type}
+</t>
+  </si>
+  <si>
+    <t>Slicing on the name part</t>
+  </si>
+  <si>
+    <t>(any and all of the name parts e.g. Medicinal Product Name.Formulation Part)</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.name.namePart.id</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.name.namePart.extension</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.name.namePart.modifierExtension</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.name.namePart.part</t>
+  </si>
+  <si>
+    <t>A fragment of a product name</t>
+  </si>
+  <si>
+    <t>A fragment of a product name.</t>
+  </si>
+  <si>
+    <t>(text of any of the name parts e.g. Medicinal Product Name.Formulation Part)</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.name.namePart.type</t>
+  </si>
+  <si>
+    <t>Identifying type for this part of the name (e.g. strength part)</t>
+  </si>
+  <si>
+    <t>Identifying type for this part of the name (e.g. strength part).</t>
+  </si>
+  <si>
+    <t>Type of part of a name for a Medicinal Product.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medicinal-product-name-part-type</t>
+  </si>
+  <si>
+    <t>(which of the name parts this is e.g. Formulation Part)</t>
+  </si>
+  <si>
+    <t>invented</t>
+  </si>
+  <si>
+    <t>Coding words or phrases of the name</t>
+  </si>
+  <si>
+    <t>Coding words or phrases of the name.</t>
+  </si>
+  <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://spor.ema.europa.eu/v1/lists/100000000004"/&gt;
-    &lt;code value="100000000012"/&gt;
-    &lt;display value="Human use"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>Applicable domain for this product (e.g. human, veterinary).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medicinal-product-domain</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.version</t>
-  </si>
-  <si>
-    <t>A business identifier relating to a specific version of the product</t>
-  </si>
-  <si>
-    <t>A business identifier relating to a specific version of the product, this is commonly used to support revisions to an existing product.</t>
-  </si>
-  <si>
-    <t>Medicinal Product.Header.Version Number</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.status</t>
-  </si>
-  <si>
-    <t>Status of the product's data. Default 200000005004 'Current'</t>
-  </si>
-  <si>
-    <t>The status within the lifecycle of this product record. A high-level status, this is not intended to duplicate details carried elsewhere such as legal status, or authorization status.</t>
-  </si>
-  <si>
-    <t>The lifecycle status of an artifact.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.status.id</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.status.extension</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.status.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.status.coding.id</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.status.coding.extension</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.status.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://spor.ema.europa.eu/v1/lists/200000005003</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.status.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.status.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.status.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.status.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.status.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.statusDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>The date at which the given status became applicable</t>
-  </si>
-  <si>
-    <t>The date at which the given status became applicable.</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">markdown
-</t>
-  </si>
-  <si>
-    <t>General description of this product</t>
-  </si>
-  <si>
-    <t>General description of this product.</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.combinedPharmaceuticalDoseForm</t>
-  </si>
-  <si>
-    <t>Authorised dose form for the product, incl combination package dose forms</t>
-  </si>
-  <si>
-    <t>EMA IG 1.5 &amp; 1.6. Authorised dose form for the whole product. As applicable in one of the SPOR RMS list Combined pharmaceutical dose form, Pharmaceutical dose form, Combined term, Combination Package</t>
-  </si>
-  <si>
-    <t>Dose forms for a product as a whole, considering all individual parts, but before any mixing</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/combined-dose-form</t>
-  </si>
-  <si>
-    <t>Medicinal Product.Combined Pharmaceutical Dose Form</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.combinedPharmaceuticalDoseForm.id</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.combinedPharmaceuticalDoseForm.extension</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.combinedPharmaceuticalDoseForm.coding</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.combinedPharmaceuticalDoseForm.coding.id</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.combinedPharmaceuticalDoseForm.coding.extension</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.combinedPharmaceuticalDoseForm.coding.system</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.combinedPharmaceuticalDoseForm.coding.version</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.combinedPharmaceuticalDoseForm.coding.code</t>
-  </si>
-  <si>
-    <t>http://unicom-project.eu/fhir/ValueSet/authorised-doseform-vs</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.combinedPharmaceuticalDoseForm.coding.display</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.combinedPharmaceuticalDoseForm.coding.userSelected</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.combinedPharmaceuticalDoseForm.text</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.route</t>
-  </si>
-  <si>
-    <t>The path by which the product is taken into or makes contact with the body</t>
-  </si>
-  <si>
-    <t>The path by which the product is taken into or makes contact with the body. In some regions this is referred to as the licenced or approved route. See also AdministrableProductDefinition resource. MedicinalProductDefinition.route is the same concept as AdministrableProductDefinition.routeOfAdministration.code, and they cannot be used together.</t>
-  </si>
-  <si>
-    <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
-  </si>
-  <si>
-    <t>Pharmaceutical Product.Route of Administration</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.indication</t>
-  </si>
-  <si>
-    <t>Description of indication(s) for this product, used when structured indications are not required</t>
-  </si>
-  <si>
-    <t>Description of indication(s) for this product, used when structured indications are not required. In cases where structured indications are required, they are captured using the ClinicalUseDefinition resource. An indication is a medical situation for which using the product is appropriate.</t>
-  </si>
-  <si>
-    <t>(roll up of all text in Therapeutic Indication.Indication Text, for common case where information is not granular)</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.legalStatusOfSupply</t>
-  </si>
-  <si>
-    <t>Legal status of supply on the medicinal product level.</t>
-  </si>
-  <si>
-    <t>EMA IG 1.7. Legal status of supply on the medicinal product level. The same information can be repeated/differentiated on the package level</t>
-  </si>
-  <si>
-    <t>The prescription supply types appropriate to a medicinal product</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/legal-status-of-supply</t>
-  </si>
-  <si>
-    <t>Marketing Authorisation.Legal Status of Supply (moved here for practicality)</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.legalStatusOfSupply.id</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.legalStatusOfSupply.extension</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.legalStatusOfSupply.coding</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.legalStatusOfSupply.coding.id</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.legalStatusOfSupply.coding.extension</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.legalStatusOfSupply.coding.system</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.legalStatusOfSupply.coding.version</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.legalStatusOfSupply.coding.code</t>
-  </si>
-  <si>
-    <t>http://unicom-project.eu/fhir/ValueSet/legal-status-for-the-supply-vs</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.legalStatusOfSupply.coding.display</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.legalStatusOfSupply.coding.userSelected</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.legalStatusOfSupply.text</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.additionalMonitoringIndicator</t>
-  </si>
-  <si>
-    <t>Whether the Medicinal Product is subject to additional monitoring for regulatory reasons</t>
-  </si>
-  <si>
-    <t>Whether the Medicinal Product is subject to additional monitoring for regulatory reasons, such as heightened reporting requirements.</t>
-  </si>
-  <si>
-    <t>Extra measures defined for a Medicinal Product, such as heightened reporting requirements (e.g. Black Triangle Monitoring).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medicinal-product-additional-monitoring</t>
-  </si>
-  <si>
-    <t>Medicinal Product.Additional Monitoring Indicator</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.specialMeasures</t>
-  </si>
-  <si>
-    <t>Whether the Medicinal Product is subject to special measures for regulatory reasons</t>
-  </si>
-  <si>
-    <t>Whether the Medicinal Product is subject to special measures for regulatory reasons, such as a requirement to conduct post-authorisation studies.</t>
-  </si>
-  <si>
-    <t>Extra measures defined for a Medicinal Product, such as a requirement to conduct post-authorisation studies.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medicinal-product-special-measures</t>
-  </si>
-  <si>
-    <t>Medicinal Product.Special Measures</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.pediatricUseIndicator</t>
-  </si>
-  <si>
-    <t>If authorised for use in children</t>
-  </si>
-  <si>
-    <t>If authorised for use in children, or infants, neonates etc.</t>
-  </si>
-  <si>
-    <t>Suitability for age groups, in particular children.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medicinal-product-pediatric-use</t>
-  </si>
-  <si>
-    <t>Medicinal Product.Pediatric Use Indicator</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.classification</t>
-  </si>
-  <si>
-    <t>ATC or other classification</t>
-  </si>
-  <si>
-    <t>EMA IG 1.13</t>
-  </si>
-  <si>
-    <t>This value set includes codes from the Anatomical Therapeutic Chemical Classification System - provided as an exemplar value set.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/product-classification-codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattern:coding.system}
-</t>
-  </si>
-  <si>
-    <t>Product Classification.Value</t>
-  </si>
-  <si>
-    <t>atc</t>
-  </si>
-  <si>
-    <t>Allows the product to be classified by various systems</t>
-  </si>
-  <si>
-    <t>Allows the product to be classified by various systems, commonly WHO ATC.</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.classification.id</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.classification.extension</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.classification.coding</t>
-  </si>
-  <si>
-    <t>ATC classification</t>
-  </si>
-  <si>
-    <t>EMA IG 1.13.3</t>
-  </si>
-  <si>
-    <t>ema</t>
-  </si>
-  <si>
-    <t>ATC classification as EMA SPOR code</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.classification.coding.id</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.classification.coding.extension</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.classification.coding.system</t>
-  </si>
-  <si>
-    <t>http://spor.ema.europa.eu/v1/lists/100000093533</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.classification.coding.version</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.classification.coding.code</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.classification.coding.display</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.classification.coding.userSelected</t>
-  </si>
-  <si>
-    <t>who</t>
-  </si>
-  <si>
-    <t>ATC classification as WHO ATC code</t>
-  </si>
-  <si>
-    <t>http://www.whocc.no/atc</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.classification.text</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.marketingStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MarketingStatus
-</t>
-  </si>
-  <si>
-    <t>Marketing status of the medicinal product, in contrast to marketing authorization</t>
-  </si>
-  <si>
-    <t>Marketing status of the medicinal product, in contrast to marketing authorization. This refers to the product being actually 'on the market' as opposed to being allowed to be on the market (which is an authorization).</t>
-  </si>
-  <si>
-    <t>Marketing Status</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.packagedMedicinalProduct</t>
-  </si>
-  <si>
-    <t>Package type for the product</t>
-  </si>
-  <si>
-    <t>Package type for the product. See also the PackagedProductDefinition resource.</t>
-  </si>
-  <si>
-    <t>Types of medicinal product packs</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medicinal-product-package-type</t>
-  </si>
-  <si>
-    <t>Packaged Medicinal Product</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.ingredient</t>
-  </si>
-  <si>
-    <t>The ingredients of this medicinal product - when not detailed in other resources</t>
-  </si>
-  <si>
-    <t>The ingredients of this medicinal product - when not detailed in other resources. This is only needed if the ingredients are not specified by incoming references from the Ingredient resource, or indirectly via incoming AdministrableProductDefinition, PackagedProductDefinition or ManufacturedItemDefinition references. In cases where those levels of detail are not used, the ingredients may be specified directly here as codes.</t>
-  </si>
-  <si>
-    <t>This value set includes all substance codes from SNOMED CT - provided as an exemplar value set.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/substance-codes</t>
-  </si>
-  <si>
-    <t>Medicinal Product.Ingredient (see also FHIR Ingredient resource)</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.impurity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableReference(SubstanceDefinition)
-</t>
-  </si>
-  <si>
-    <t>Any component of the drug product which is not the chemical entity defined as the drug substance, or an excipient in the drug product</t>
-  </si>
-  <si>
-    <t>Any component of the drug product which is not the chemical entity defined as the drug substance, or an excipient in the drug product. This includes process-related impurities and contaminants, product-related impurities including degradation products.</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.attachedDocument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(DocumentReference)
-</t>
-  </si>
-  <si>
-    <t>Additional documentation about the medicinal product</t>
-  </si>
-  <si>
-    <t>Additional information or supporting documentation about the medicinal product.</t>
-  </si>
-  <si>
-    <t>Attached Document</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.masterFile</t>
-  </si>
-  <si>
-    <t>A master file for the medicinal product (e.g. Pharmacovigilance System Master File)</t>
-  </si>
-  <si>
-    <t>A master file for the medicinal product (e.g. Pharmacovigilance System Master File). Drug master files (DMFs) are documents submitted to regulatory agencies to provide confidential detailed information about facilities, processes or articles used in the manufacturing, processing, packaging and storing of drug products.</t>
-  </si>
-  <si>
-    <t>Master File</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>A product specific contact, person (in a role), or an organization</t>
-  </si>
-  <si>
-    <t>A product specific contact, person (in a role), or an organization.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
-</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.contact.id</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.contact.extension</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.contact.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.contact.type</t>
-  </si>
-  <si>
-    <t>Allows the contact to be classified, for example QPPV, Pharmacovigilance Enquiry Information</t>
-  </si>
-  <si>
-    <t>Allows the contact to be classified, for example QPPV, Pharmacovigilance Enquiry Information.</t>
-  </si>
-  <si>
-    <t>Extra measures defined for a Medicinal Product, such as heightened reporting requirements.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medicinal-product-contact-type</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.contact.contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization|PractitionerRole)
-</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.clinicalTrial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(ResearchStudy)
-</t>
-  </si>
-  <si>
-    <t>Clinical trials or studies that this product is involved in</t>
-  </si>
-  <si>
-    <t>Clinical trials or studies that this product is involved in.</t>
-  </si>
-  <si>
-    <t>Investigational Medicinal Product.Clinical Trial Status</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.code</t>
-  </si>
-  <si>
-    <t>A code that this product is known by, within some formal terminology</t>
-  </si>
-  <si>
-    <t>A code that this product is known by, usually within some formal terminology, perhaps assigned by a third party (i.e. not the manufacturer or regulator). Products (types of medications) tend to be known by identifiers during development and within regulatory process. However when they are prescribed they tend to be identified by codes. The same product may be have multiple codes, applied to it by multiple organizations.</t>
-  </si>
-  <si>
-    <t>A coded concept that defines the type of a medication.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.name</t>
-  </si>
-  <si>
-    <t>The product's name, including full name and possibly coded parts</t>
-  </si>
-  <si>
-    <t>EMA IG 1.14</t>
-  </si>
-  <si>
-    <t>Medicinal Product Name</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.name.id</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.name.extension</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.name.modifierExtension</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.name.productName</t>
-  </si>
-  <si>
-    <t>The full product name</t>
-  </si>
-  <si>
-    <t>EMA IG 1.14.1</t>
-  </si>
-  <si>
-    <t>Medicinal Product Name.Full Name</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.name.type</t>
-  </si>
-  <si>
-    <t>Type of product name, such as rINN, BAN, Proprietary, Non-Proprietary</t>
-  </si>
-  <si>
-    <t>Type of product name, such as rINN, BAN, Proprietary, Non-Proprietary.</t>
-  </si>
-  <si>
-    <t>Type of a name for a Medicinal Product.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medicinal-product-name-type</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.name.namePart</t>
-  </si>
-  <si>
-    <t>Medicinal product name part</t>
-  </si>
-  <si>
-    <t>EMA IG 1.14.3. Name part. Product names are usually combined of these three parts. More parts can be defined and strength and dose form parts can be omitted.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattern:type}
-</t>
-  </si>
-  <si>
-    <t>Slicing on the name part</t>
-  </si>
-  <si>
-    <t>(any and all of the name parts e.g. Medicinal Product Name.Formulation Part)</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.name.namePart.id</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.name.namePart.extension</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.name.namePart.modifierExtension</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.name.namePart.part</t>
-  </si>
-  <si>
-    <t>A fragment of a product name</t>
-  </si>
-  <si>
-    <t>A fragment of a product name.</t>
-  </si>
-  <si>
-    <t>(text of any of the name parts e.g. Medicinal Product Name.Formulation Part)</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.name.namePart.type</t>
-  </si>
-  <si>
-    <t>Identifying type for this part of the name (e.g. strength part)</t>
-  </si>
-  <si>
-    <t>Identifying type for this part of the name (e.g. strength part).</t>
-  </si>
-  <si>
-    <t>Type of part of a name for a Medicinal Product.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medicinal-product-name-part-type</t>
-  </si>
-  <si>
-    <t>(which of the name parts this is e.g. Formulation Part)</t>
-  </si>
-  <si>
-    <t>invented</t>
-  </si>
-  <si>
-    <t>Coding words or phrases of the name</t>
-  </si>
-  <si>
-    <t>Coding words or phrases of the name.</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://spor.ema.europa.eu/v1/lists/220000000000"/&gt;
+    &lt;system value="https://spor.ema.europa.eu/v1/lists/220000000000"/&gt;
     &lt;code value="220000000002"/&gt;
     &lt;display value="Invented name part"/&gt;
   &lt;/coding&gt;
@@ -1530,7 +1518,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://spor.ema.europa.eu/v1/lists/220000000000"/&gt;
+    &lt;system value="https://spor.ema.europa.eu/v1/lists/220000000000"/&gt;
     &lt;code value="220000000004"/&gt;
     &lt;display value="Strength part"/&gt;
   &lt;/coding&gt;
@@ -1542,7 +1530,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://spor.ema.europa.eu/v1/lists/220000000000"/&gt;
+    &lt;system value="https://spor.ema.europa.eu/v1/lists/220000000000"/&gt;
     &lt;code value="220000000005"/&gt;
     &lt;display value="Pharmaceutical dose form part"/&gt;
   &lt;/coding&gt;
@@ -1609,7 +1597,7 @@
     <t>MedicinalProductDefinition.name.countryLanguage.country.coding.system</t>
   </si>
   <si>
-    <t>http://spor.ema.europa.eu/v1/lists/100000000002</t>
+    <t>https://spor.ema.europa.eu/v1/lists/100000000002</t>
   </si>
   <si>
     <t>MedicinalProductDefinition.name.countryLanguage.country.coding.version</t>
@@ -1678,7 +1666,7 @@
     <t>MedicinalProductDefinition.name.countryLanguage.language.coding.system</t>
   </si>
   <si>
-    <t>http://spor.ema.europa.eu/v1/lists/100000072057</t>
+    <t>https://spor.ema.europa.eu/v1/lists/100000072057</t>
   </si>
   <si>
     <t>MedicinalProductDefinition.name.countryLanguage.language.coding.version</t>
@@ -5501,28 +5489,26 @@
         <v>73</v>
       </c>
       <c r="R31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="X31" s="2"/>
+      <c r="Y31" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>73</v>
@@ -5566,7 +5552,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5592,10 +5578,10 @@
         <v>189</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5646,7 +5632,7 @@
         <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>74</v>
@@ -5661,7 +5647,7 @@
         <v>94</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>73</v>
@@ -5672,7 +5658,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5698,10 +5684,10 @@
         <v>171</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5731,10 +5717,10 @@
         <v>106</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>73</v>
@@ -5752,7 +5738,7 @@
         <v>73</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>74</v>
@@ -5778,7 +5764,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5884,7 +5870,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5992,7 +5978,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6015,19 +6001,19 @@
         <v>83</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>73</v>
@@ -6076,7 +6062,7 @@
         <v>73</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>74</v>
@@ -6097,12 +6083,12 @@
         <v>73</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6208,7 +6194,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6316,7 +6302,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6342,16 +6328,16 @@
         <v>96</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>73</v>
@@ -6361,7 +6347,7 @@
         <v>73</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>73</v>
@@ -6400,7 +6386,7 @@
         <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -6421,12 +6407,12 @@
         <v>73</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6452,13 +6438,13 @@
         <v>189</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6508,7 +6494,7 @@
         <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>74</v>
@@ -6529,12 +6515,12 @@
         <v>73</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6560,14 +6546,14 @@
         <v>102</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>73</v>
@@ -6616,7 +6602,7 @@
         <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>74</v>
@@ -6637,12 +6623,12 @@
         <v>73</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6668,14 +6654,14 @@
         <v>189</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>73</v>
@@ -6724,7 +6710,7 @@
         <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
@@ -6745,12 +6731,12 @@
         <v>73</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6773,19 +6759,19 @@
         <v>83</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>73</v>
@@ -6834,7 +6820,7 @@
         <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>74</v>
@@ -6855,12 +6841,12 @@
         <v>73</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6886,16 +6872,16 @@
         <v>189</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>73</v>
@@ -6944,7 +6930,7 @@
         <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>74</v>
@@ -6965,12 +6951,12 @@
         <v>73</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6993,13 +6979,13 @@
         <v>83</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7050,7 +7036,7 @@
         <v>73</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>74</v>
@@ -7076,7 +7062,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7099,13 +7085,13 @@
         <v>83</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7156,7 +7142,7 @@
         <v>73</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>74</v>
@@ -7182,7 +7168,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7208,10 +7194,10 @@
         <v>171</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7241,10 +7227,10 @@
         <v>216</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>73</v>
@@ -7262,7 +7248,7 @@
         <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>74</v>
@@ -7277,7 +7263,7 @@
         <v>94</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>73</v>
@@ -7288,7 +7274,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7394,7 +7380,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7502,7 +7488,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7525,19 +7511,19 @@
         <v>83</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>73</v>
@@ -7586,7 +7572,7 @@
         <v>73</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>74</v>
@@ -7607,12 +7593,12 @@
         <v>73</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7718,7 +7704,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7826,7 +7812,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7852,16 +7838,16 @@
         <v>96</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>73</v>
@@ -7910,7 +7896,7 @@
         <v>73</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>74</v>
@@ -7931,12 +7917,12 @@
         <v>73</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7962,13 +7948,13 @@
         <v>189</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8018,7 +8004,7 @@
         <v>73</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
@@ -8039,12 +8025,12 @@
         <v>73</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8070,14 +8056,14 @@
         <v>102</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>73</v>
@@ -8106,7 +8092,7 @@
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>73</v>
@@ -8124,7 +8110,7 @@
         <v>73</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
@@ -8145,12 +8131,12 @@
         <v>73</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8176,14 +8162,14 @@
         <v>189</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>73</v>
@@ -8232,7 +8218,7 @@
         <v>73</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
@@ -8253,12 +8239,12 @@
         <v>73</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8281,19 +8267,19 @@
         <v>83</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>73</v>
@@ -8342,7 +8328,7 @@
         <v>73</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
@@ -8363,12 +8349,12 @@
         <v>73</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8394,16 +8380,16 @@
         <v>189</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>73</v>
@@ -8452,7 +8438,7 @@
         <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
@@ -8473,12 +8459,12 @@
         <v>73</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8504,10 +8490,10 @@
         <v>171</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8537,10 +8523,10 @@
         <v>216</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>73</v>
@@ -8558,7 +8544,7 @@
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -8573,7 +8559,7 @@
         <v>94</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>73</v>
@@ -8584,7 +8570,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8607,13 +8593,13 @@
         <v>83</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8664,7 +8650,7 @@
         <v>73</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
@@ -8679,7 +8665,7 @@
         <v>94</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>73</v>
@@ -8690,7 +8676,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8716,10 +8702,10 @@
         <v>171</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8749,10 +8735,10 @@
         <v>216</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>73</v>
@@ -8770,7 +8756,7 @@
         <v>73</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
@@ -8785,7 +8771,7 @@
         <v>94</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>73</v>
@@ -8796,7 +8782,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8902,7 +8888,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9010,7 +8996,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9033,19 +9019,19 @@
         <v>83</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>73</v>
@@ -9094,7 +9080,7 @@
         <v>73</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>74</v>
@@ -9115,12 +9101,12 @@
         <v>73</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9226,7 +9212,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9334,7 +9320,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9360,16 +9346,16 @@
         <v>96</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>73</v>
@@ -9418,7 +9404,7 @@
         <v>73</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>74</v>
@@ -9439,12 +9425,12 @@
         <v>73</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9470,13 +9456,13 @@
         <v>189</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9526,7 +9512,7 @@
         <v>73</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>74</v>
@@ -9547,12 +9533,12 @@
         <v>73</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9578,14 +9564,14 @@
         <v>102</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>73</v>
@@ -9614,7 +9600,7 @@
       </c>
       <c r="X69" s="2"/>
       <c r="Y69" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>73</v>
@@ -9632,7 +9618,7 @@
         <v>73</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>74</v>
@@ -9653,12 +9639,12 @@
         <v>73</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9684,14 +9670,14 @@
         <v>189</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>73</v>
@@ -9740,7 +9726,7 @@
         <v>73</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>74</v>
@@ -9761,12 +9747,12 @@
         <v>73</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9789,19 +9775,19 @@
         <v>83</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="K71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>73</v>
@@ -9850,7 +9836,7 @@
         <v>73</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>74</v>
@@ -9871,12 +9857,12 @@
         <v>73</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9902,16 +9888,16 @@
         <v>189</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>73</v>
@@ -9960,7 +9946,7 @@
         <v>73</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>74</v>
@@ -9981,12 +9967,12 @@
         <v>73</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10012,10 +9998,10 @@
         <v>171</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10045,10 +10031,10 @@
         <v>216</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>73</v>
@@ -10066,7 +10052,7 @@
         <v>73</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>74</v>
@@ -10081,7 +10067,7 @@
         <v>94</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>73</v>
@@ -10092,7 +10078,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10118,10 +10104,10 @@
         <v>171</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10151,10 +10137,10 @@
         <v>216</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>73</v>
@@ -10172,7 +10158,7 @@
         <v>73</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>74</v>
@@ -10187,7 +10173,7 @@
         <v>94</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>73</v>
@@ -10198,7 +10184,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10224,10 +10210,10 @@
         <v>171</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10257,10 +10243,10 @@
         <v>216</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>73</v>
@@ -10278,7 +10264,7 @@
         <v>73</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>74</v>
@@ -10293,7 +10279,7 @@
         <v>94</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>73</v>
@@ -10304,7 +10290,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10330,10 +10316,10 @@
         <v>171</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10363,16 +10349,16 @@
         <v>216</v>
       </c>
       <c r="X76" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA76" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="AB76" s="2"/>
       <c r="AC76" t="s" s="2">
@@ -10382,7 +10368,7 @@
         <v>146</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>74</v>
@@ -10397,7 +10383,7 @@
         <v>94</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>73</v>
@@ -10408,10 +10394,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C77" t="s" s="2">
         <v>73</v>
@@ -10436,10 +10422,10 @@
         <v>171</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10469,10 +10455,10 @@
         <v>216</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>73</v>
@@ -10490,7 +10476,7 @@
         <v>73</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>74</v>
@@ -10505,7 +10491,7 @@
         <v>94</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>73</v>
@@ -10516,7 +10502,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10622,7 +10608,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10730,7 +10716,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10753,19 +10739,19 @@
         <v>83</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>73</v>
@@ -10812,7 +10798,7 @@
         <v>146</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>74</v>
@@ -10833,15 +10819,15 @@
         <v>73</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>73</v>
@@ -10863,19 +10849,19 @@
         <v>83</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="K81" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N81" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>73</v>
@@ -10924,7 +10910,7 @@
         <v>73</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>74</v>
@@ -10945,12 +10931,12 @@
         <v>73</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11056,7 +11042,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11164,7 +11150,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11190,16 +11176,16 @@
         <v>96</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>73</v>
@@ -11209,7 +11195,7 @@
         <v>73</v>
       </c>
       <c r="R84" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>73</v>
@@ -11248,7 +11234,7 @@
         <v>73</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>74</v>
@@ -11269,12 +11255,12 @@
         <v>73</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11300,13 +11286,13 @@
         <v>189</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11356,7 +11342,7 @@
         <v>73</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>74</v>
@@ -11377,12 +11363,12 @@
         <v>73</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11408,14 +11394,14 @@
         <v>102</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>73</v>
@@ -11464,7 +11450,7 @@
         <v>73</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>74</v>
@@ -11485,12 +11471,12 @@
         <v>73</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11516,14 +11502,14 @@
         <v>189</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>73</v>
@@ -11572,7 +11558,7 @@
         <v>73</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>74</v>
@@ -11593,12 +11579,12 @@
         <v>73</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11621,19 +11607,19 @@
         <v>83</v>
       </c>
       <c r="J88" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="K88" t="s" s="2">
+      <c r="M88" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>73</v>
@@ -11682,7 +11668,7 @@
         <v>73</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>74</v>
@@ -11703,15 +11689,15 @@
         <v>73</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C89" t="s" s="2">
         <v>73</v>
@@ -11733,19 +11719,19 @@
         <v>83</v>
       </c>
       <c r="J89" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="K89" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N89" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>73</v>
@@ -11794,7 +11780,7 @@
         <v>73</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>74</v>
@@ -11815,12 +11801,12 @@
         <v>73</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11926,7 +11912,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12034,7 +12020,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12060,16 +12046,16 @@
         <v>96</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>73</v>
@@ -12079,7 +12065,7 @@
         <v>73</v>
       </c>
       <c r="R92" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="S92" t="s" s="2">
         <v>73</v>
@@ -12118,7 +12104,7 @@
         <v>73</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>74</v>
@@ -12139,12 +12125,12 @@
         <v>73</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12170,13 +12156,13 @@
         <v>189</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12226,7 +12212,7 @@
         <v>73</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>74</v>
@@ -12247,12 +12233,12 @@
         <v>73</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12278,14 +12264,14 @@
         <v>102</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>73</v>
@@ -12334,7 +12320,7 @@
         <v>73</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>74</v>
@@ -12355,12 +12341,12 @@
         <v>73</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12386,14 +12372,14 @@
         <v>189</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>73</v>
@@ -12442,7 +12428,7 @@
         <v>73</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>74</v>
@@ -12463,12 +12449,12 @@
         <v>73</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12491,19 +12477,19 @@
         <v>83</v>
       </c>
       <c r="J96" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="K96" t="s" s="2">
+      <c r="M96" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>73</v>
@@ -12552,7 +12538,7 @@
         <v>73</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>74</v>
@@ -12573,12 +12559,12 @@
         <v>73</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12604,16 +12590,16 @@
         <v>189</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="N97" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>73</v>
@@ -12662,7 +12648,7 @@
         <v>73</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>74</v>
@@ -12683,12 +12669,12 @@
         <v>73</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12711,13 +12697,13 @@
         <v>83</v>
       </c>
       <c r="J98" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12768,7 +12754,7 @@
         <v>73</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>74</v>
@@ -12783,7 +12769,7 @@
         <v>94</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>73</v>
@@ -12794,7 +12780,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12820,10 +12806,10 @@
         <v>171</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -12853,10 +12839,10 @@
         <v>216</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Z99" t="s" s="2">
         <v>73</v>
@@ -12874,7 +12860,7 @@
         <v>73</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>74</v>
@@ -12889,7 +12875,7 @@
         <v>94</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>73</v>
@@ -12900,7 +12886,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12926,10 +12912,10 @@
         <v>171</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -12959,10 +12945,10 @@
         <v>216</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>73</v>
@@ -12980,7 +12966,7 @@
         <v>73</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>74</v>
@@ -12995,7 +12981,7 @@
         <v>94</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>73</v>
@@ -13006,7 +12992,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13029,13 +13015,13 @@
         <v>83</v>
       </c>
       <c r="J101" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -13065,28 +13051,28 @@
         <v>216</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="Y101" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE101" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>74</v>
@@ -13112,7 +13098,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13135,13 +13121,13 @@
         <v>83</v>
       </c>
       <c r="J102" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -13192,7 +13178,7 @@
         <v>73</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>74</v>
@@ -13207,7 +13193,7 @@
         <v>94</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>73</v>
@@ -13218,7 +13204,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13241,13 +13227,13 @@
         <v>83</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -13298,7 +13284,7 @@
         <v>73</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>74</v>
@@ -13313,7 +13299,7 @@
         <v>94</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>73</v>
@@ -13324,7 +13310,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13347,13 +13333,13 @@
         <v>83</v>
       </c>
       <c r="J104" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -13404,7 +13390,7 @@
         <v>73</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>74</v>
@@ -13416,7 +13402,7 @@
         <v>73</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>155</v>
@@ -13430,7 +13416,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13536,7 +13522,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13644,11 +13630,11 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -13670,10 +13656,10 @@
         <v>129</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="M107" t="s" s="2">
         <v>132</v>
@@ -13728,7 +13714,7 @@
         <v>73</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>74</v>
@@ -13754,7 +13740,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13780,10 +13766,10 @@
         <v>171</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -13813,10 +13799,10 @@
         <v>216</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>73</v>
@@ -13834,7 +13820,7 @@
         <v>73</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>74</v>
@@ -13860,7 +13846,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13883,13 +13869,13 @@
         <v>83</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -13940,7 +13926,7 @@
         <v>73</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>82</v>
@@ -13966,7 +13952,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13989,13 +13975,13 @@
         <v>83</v>
       </c>
       <c r="J110" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L110" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -14046,7 +14032,7 @@
         <v>73</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>74</v>
@@ -14061,7 +14047,7 @@
         <v>94</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>73</v>
@@ -14072,7 +14058,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14095,13 +14081,13 @@
         <v>83</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -14131,10 +14117,10 @@
         <v>216</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>73</v>
@@ -14152,7 +14138,7 @@
         <v>73</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>74</v>
@@ -14178,7 +14164,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14201,13 +14187,13 @@
         <v>83</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -14258,7 +14244,7 @@
         <v>73</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>82</v>
@@ -14270,10 +14256,10 @@
         <v>73</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>73</v>
@@ -14284,7 +14270,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14390,7 +14376,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14498,11 +14484,11 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -14524,10 +14510,10 @@
         <v>129</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="M115" t="s" s="2">
         <v>132</v>
@@ -14582,7 +14568,7 @@
         <v>73</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>74</v>
@@ -14608,7 +14594,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14634,10 +14620,10 @@
         <v>189</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -14688,7 +14674,7 @@
         <v>73</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>82</v>
@@ -14703,7 +14689,7 @@
         <v>94</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>73</v>
@@ -14714,7 +14700,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14740,10 +14726,10 @@
         <v>171</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
@@ -14773,10 +14759,10 @@
         <v>216</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="Z117" t="s" s="2">
         <v>73</v>
@@ -14794,7 +14780,7 @@
         <v>73</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>74</v>
@@ -14820,7 +14806,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14843,13 +14829,13 @@
         <v>83</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -14888,10 +14874,10 @@
         <v>73</v>
       </c>
       <c r="AA118" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AB118" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AC118" t="s" s="2">
         <v>83</v>
@@ -14900,7 +14886,7 @@
         <v>146</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>74</v>
@@ -14912,10 +14898,10 @@
         <v>73</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>73</v>
@@ -14926,7 +14912,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15032,7 +15018,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15140,11 +15126,11 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
@@ -15166,10 +15152,10 @@
         <v>129</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="M121" t="s" s="2">
         <v>132</v>
@@ -15224,7 +15210,7 @@
         <v>73</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>74</v>
@@ -15250,7 +15236,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15276,10 +15262,10 @@
         <v>189</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -15330,7 +15316,7 @@
         <v>73</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>82</v>
@@ -15345,7 +15331,7 @@
         <v>94</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>73</v>
@@ -15356,7 +15342,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15382,10 +15368,10 @@
         <v>171</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -15415,10 +15401,10 @@
         <v>216</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>73</v>
@@ -15436,7 +15422,7 @@
         <v>73</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>82</v>
@@ -15451,7 +15437,7 @@
         <v>94</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>73</v>
@@ -15462,10 +15448,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C124" t="s" s="2">
         <v>73</v>
@@ -15487,13 +15473,13 @@
         <v>83</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
@@ -15544,7 +15530,7 @@
         <v>73</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>74</v>
@@ -15556,10 +15542,10 @@
         <v>73</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AK124" t="s" s="2">
         <v>73</v>
@@ -15570,7 +15556,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15676,7 +15662,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15784,11 +15770,11 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -15810,10 +15796,10 @@
         <v>129</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="M127" t="s" s="2">
         <v>132</v>
@@ -15868,7 +15854,7 @@
         <v>73</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>74</v>
@@ -15894,7 +15880,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -15920,10 +15906,10 @@
         <v>189</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -15974,7 +15960,7 @@
         <v>73</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>82</v>
@@ -15989,7 +15975,7 @@
         <v>94</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>73</v>
@@ -16000,7 +15986,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -16026,10 +16012,10 @@
         <v>171</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
@@ -16041,7 +16027,7 @@
         <v>73</v>
       </c>
       <c r="R129" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="S129" t="s" s="2">
         <v>73</v>
@@ -16059,10 +16045,10 @@
         <v>216</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="Z129" t="s" s="2">
         <v>73</v>
@@ -16080,7 +16066,7 @@
         <v>73</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>82</v>
@@ -16095,7 +16081,7 @@
         <v>94</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>73</v>
@@ -16106,10 +16092,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C130" t="s" s="2">
         <v>73</v>
@@ -16131,13 +16117,13 @@
         <v>83</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
@@ -16188,7 +16174,7 @@
         <v>73</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>74</v>
@@ -16200,10 +16186,10 @@
         <v>73</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>73</v>
@@ -16214,7 +16200,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -16320,7 +16306,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -16428,11 +16414,11 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -16454,10 +16440,10 @@
         <v>129</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="M133" t="s" s="2">
         <v>132</v>
@@ -16512,7 +16498,7 @@
         <v>73</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>74</v>
@@ -16538,7 +16524,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -16564,10 +16550,10 @@
         <v>189</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -16618,7 +16604,7 @@
         <v>73</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>82</v>
@@ -16633,7 +16619,7 @@
         <v>94</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AK134" t="s" s="2">
         <v>73</v>
@@ -16644,7 +16630,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -16670,10 +16656,10 @@
         <v>171</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -16685,7 +16671,7 @@
         <v>73</v>
       </c>
       <c r="R135" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="S135" t="s" s="2">
         <v>73</v>
@@ -16703,10 +16689,10 @@
         <v>216</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="Z135" t="s" s="2">
         <v>73</v>
@@ -16724,7 +16710,7 @@
         <v>73</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>82</v>
@@ -16739,7 +16725,7 @@
         <v>94</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>73</v>
@@ -16750,10 +16736,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C136" t="s" s="2">
         <v>73</v>
@@ -16775,13 +16761,13 @@
         <v>83</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
@@ -16832,7 +16818,7 @@
         <v>73</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>74</v>
@@ -16844,10 +16830,10 @@
         <v>73</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>73</v>
@@ -16858,7 +16844,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -16964,7 +16950,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17072,11 +17058,11 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -17098,10 +17084,10 @@
         <v>129</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="M139" t="s" s="2">
         <v>132</v>
@@ -17156,7 +17142,7 @@
         <v>73</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>74</v>
@@ -17182,7 +17168,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -17208,10 +17194,10 @@
         <v>189</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -17262,7 +17248,7 @@
         <v>73</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>82</v>
@@ -17277,7 +17263,7 @@
         <v>94</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>73</v>
@@ -17288,7 +17274,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -17314,10 +17300,10 @@
         <v>171</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -17329,7 +17315,7 @@
         <v>73</v>
       </c>
       <c r="R141" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="S141" t="s" s="2">
         <v>73</v>
@@ -17347,10 +17333,10 @@
         <v>216</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="Z141" t="s" s="2">
         <v>73</v>
@@ -17368,7 +17354,7 @@
         <v>73</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>82</v>
@@ -17383,7 +17369,7 @@
         <v>94</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>73</v>
@@ -17394,7 +17380,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -17417,13 +17403,13 @@
         <v>83</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
@@ -17474,7 +17460,7 @@
         <v>73</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>74</v>
@@ -17486,10 +17472,10 @@
         <v>73</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>73</v>
@@ -17500,7 +17486,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -17606,7 +17592,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -17714,11 +17700,11 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -17740,10 +17726,10 @@
         <v>129</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="M145" t="s" s="2">
         <v>132</v>
@@ -17798,7 +17784,7 @@
         <v>73</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>74</v>
@@ -17824,7 +17810,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -17850,10 +17836,10 @@
         <v>171</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -17883,10 +17869,10 @@
         <v>216</v>
       </c>
       <c r="X146" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="Y146" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="Z146" t="s" s="2">
         <v>73</v>
@@ -17904,7 +17890,7 @@
         <v>73</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>82</v>
@@ -17919,7 +17905,7 @@
         <v>94</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AK146" t="s" s="2">
         <v>73</v>
@@ -17930,7 +17916,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -18036,7 +18022,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -18144,7 +18130,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -18167,19 +18153,19 @@
         <v>83</v>
       </c>
       <c r="J149" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="K149" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L149" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="K149" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="L149" t="s" s="2">
+      <c r="M149" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N149" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>73</v>
@@ -18226,7 +18212,7 @@
         <v>146</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>74</v>
@@ -18247,15 +18233,15 @@
         <v>73</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C150" t="s" s="2">
         <v>73</v>
@@ -18277,19 +18263,19 @@
         <v>83</v>
       </c>
       <c r="J150" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="K150" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L150" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="K150" t="s" s="2">
+      <c r="M150" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L150" t="s" s="2">
+      <c r="N150" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>73</v>
@@ -18338,7 +18324,7 @@
         <v>73</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>74</v>
@@ -18359,12 +18345,12 @@
         <v>73</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -18470,7 +18456,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -18578,7 +18564,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -18604,16 +18590,16 @@
         <v>96</v>
       </c>
       <c r="K153" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L153" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M153" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L153" t="s" s="2">
+      <c r="N153" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="M153" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>73</v>
@@ -18623,7 +18609,7 @@
         <v>73</v>
       </c>
       <c r="R153" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="S153" t="s" s="2">
         <v>73</v>
@@ -18662,7 +18648,7 @@
         <v>73</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>74</v>
@@ -18683,12 +18669,12 @@
         <v>73</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -18714,13 +18700,13 @@
         <v>189</v>
       </c>
       <c r="K154" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L154" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M154" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L154" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M154" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
@@ -18770,7 +18756,7 @@
         <v>73</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>74</v>
@@ -18791,12 +18777,12 @@
         <v>73</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -18822,14 +18808,14 @@
         <v>102</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>73</v>
@@ -18878,7 +18864,7 @@
         <v>73</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>74</v>
@@ -18899,12 +18885,12 @@
         <v>73</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -18930,14 +18916,14 @@
         <v>189</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M156" s="2"/>
       <c r="N156" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>73</v>
@@ -18986,7 +18972,7 @@
         <v>73</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>74</v>
@@ -19007,12 +18993,12 @@
         <v>73</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -19035,19 +19021,19 @@
         <v>83</v>
       </c>
       <c r="J157" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K157" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L157" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="K157" t="s" s="2">
+      <c r="M157" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L157" t="s" s="2">
+      <c r="N157" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="M157" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N157" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>73</v>
@@ -19096,7 +19082,7 @@
         <v>73</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>74</v>
@@ -19117,15 +19103,15 @@
         <v>73</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C158" t="s" s="2">
         <v>73</v>
@@ -19147,19 +19133,19 @@
         <v>83</v>
       </c>
       <c r="J158" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="K158" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L158" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="K158" t="s" s="2">
+      <c r="M158" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L158" t="s" s="2">
+      <c r="N158" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M158" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>73</v>
@@ -19208,7 +19194,7 @@
         <v>73</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>74</v>
@@ -19229,12 +19215,12 @@
         <v>73</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -19340,7 +19326,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -19448,7 +19434,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -19474,16 +19460,16 @@
         <v>96</v>
       </c>
       <c r="K161" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L161" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M161" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L161" t="s" s="2">
+      <c r="N161" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>73</v>
@@ -19493,7 +19479,7 @@
         <v>73</v>
       </c>
       <c r="R161" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="S161" t="s" s="2">
         <v>73</v>
@@ -19532,7 +19518,7 @@
         <v>73</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>74</v>
@@ -19553,12 +19539,12 @@
         <v>73</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -19584,13 +19570,13 @@
         <v>189</v>
       </c>
       <c r="K162" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L162" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M162" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L162" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M162" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
@@ -19640,7 +19626,7 @@
         <v>73</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>74</v>
@@ -19661,12 +19647,12 @@
         <v>73</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -19692,14 +19678,14 @@
         <v>102</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M163" s="2"/>
       <c r="N163" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>73</v>
@@ -19748,7 +19734,7 @@
         <v>73</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>74</v>
@@ -19769,12 +19755,12 @@
         <v>73</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -19800,14 +19786,14 @@
         <v>189</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M164" s="2"/>
       <c r="N164" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>73</v>
@@ -19856,7 +19842,7 @@
         <v>73</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>74</v>
@@ -19877,12 +19863,12 @@
         <v>73</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -19905,19 +19891,19 @@
         <v>83</v>
       </c>
       <c r="J165" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K165" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L165" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="K165" t="s" s="2">
+      <c r="M165" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L165" t="s" s="2">
+      <c r="N165" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="M165" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N165" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>73</v>
@@ -19966,7 +19952,7 @@
         <v>73</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>74</v>
@@ -19987,12 +19973,12 @@
         <v>73</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -20018,16 +20004,16 @@
         <v>189</v>
       </c>
       <c r="K166" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L166" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M166" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L166" t="s" s="2">
+      <c r="N166" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="M166" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N166" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>73</v>
@@ -20076,7 +20062,7 @@
         <v>73</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>74</v>
@@ -20097,12 +20083,12 @@
         <v>73</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -20128,10 +20114,10 @@
         <v>171</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
@@ -20161,10 +20147,10 @@
         <v>216</v>
       </c>
       <c r="X167" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="Y167" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="Z167" t="s" s="2">
         <v>73</v>
@@ -20182,7 +20168,7 @@
         <v>73</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>74</v>
@@ -20197,7 +20183,7 @@
         <v>94</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AK167" t="s" s="2">
         <v>73</v>
@@ -20208,7 +20194,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -20234,10 +20220,10 @@
         <v>171</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
@@ -20288,7 +20274,7 @@
         <v>73</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>82</v>
@@ -20303,7 +20289,7 @@
         <v>94</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AK168" t="s" s="2">
         <v>73</v>
@@ -20314,7 +20300,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -20420,7 +20406,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -20528,7 +20514,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -20551,19 +20537,19 @@
         <v>83</v>
       </c>
       <c r="J171" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="K171" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L171" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="K171" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="L171" t="s" s="2">
+      <c r="M171" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N171" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M171" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N171" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>73</v>
@@ -20610,7 +20596,7 @@
         <v>146</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>74</v>
@@ -20631,15 +20617,15 @@
         <v>73</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C172" t="s" s="2">
         <v>73</v>
@@ -20661,19 +20647,19 @@
         <v>83</v>
       </c>
       <c r="J172" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="K172" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L172" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="K172" t="s" s="2">
+      <c r="M172" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L172" t="s" s="2">
+      <c r="N172" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M172" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N172" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>73</v>
@@ -20722,7 +20708,7 @@
         <v>73</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>74</v>
@@ -20743,12 +20729,12 @@
         <v>73</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -20854,7 +20840,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -20962,7 +20948,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -20988,16 +20974,16 @@
         <v>96</v>
       </c>
       <c r="K175" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L175" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M175" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L175" t="s" s="2">
+      <c r="N175" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="M175" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N175" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>73</v>
@@ -21007,7 +20993,7 @@
         <v>73</v>
       </c>
       <c r="R175" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="S175" t="s" s="2">
         <v>73</v>
@@ -21046,7 +21032,7 @@
         <v>73</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>74</v>
@@ -21067,12 +21053,12 @@
         <v>73</v>
       </c>
       <c r="AL175" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -21098,13 +21084,13 @@
         <v>189</v>
       </c>
       <c r="K176" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L176" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M176" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L176" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M176" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
@@ -21154,7 +21140,7 @@
         <v>73</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>74</v>
@@ -21175,12 +21161,12 @@
         <v>73</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -21206,14 +21192,14 @@
         <v>102</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M177" s="2"/>
       <c r="N177" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>73</v>
@@ -21262,7 +21248,7 @@
         <v>73</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>74</v>
@@ -21283,12 +21269,12 @@
         <v>73</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -21314,14 +21300,14 @@
         <v>189</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M178" s="2"/>
       <c r="N178" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>73</v>
@@ -21370,7 +21356,7 @@
         <v>73</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>74</v>
@@ -21391,12 +21377,12 @@
         <v>73</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -21419,19 +21405,19 @@
         <v>83</v>
       </c>
       <c r="J179" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K179" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L179" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="K179" t="s" s="2">
+      <c r="M179" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L179" t="s" s="2">
+      <c r="N179" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="M179" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N179" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>73</v>
@@ -21480,7 +21466,7 @@
         <v>73</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>74</v>
@@ -21501,15 +21487,15 @@
         <v>73</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C180" t="s" s="2">
         <v>73</v>
@@ -21531,19 +21517,19 @@
         <v>83</v>
       </c>
       <c r="J180" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="K180" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L180" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="K180" t="s" s="2">
+      <c r="M180" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L180" t="s" s="2">
+      <c r="N180" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M180" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N180" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>73</v>
@@ -21592,7 +21578,7 @@
         <v>73</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>74</v>
@@ -21613,12 +21599,12 @@
         <v>73</v>
       </c>
       <c r="AL180" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -21724,7 +21710,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -21832,7 +21818,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -21858,16 +21844,16 @@
         <v>96</v>
       </c>
       <c r="K183" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L183" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M183" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L183" t="s" s="2">
+      <c r="N183" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="M183" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N183" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O183" t="s" s="2">
         <v>73</v>
@@ -21877,7 +21863,7 @@
         <v>73</v>
       </c>
       <c r="R183" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="S183" t="s" s="2">
         <v>73</v>
@@ -21916,7 +21902,7 @@
         <v>73</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>74</v>
@@ -21937,12 +21923,12 @@
         <v>73</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -21968,13 +21954,13 @@
         <v>189</v>
       </c>
       <c r="K184" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L184" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M184" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L184" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M184" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="N184" s="2"/>
       <c r="O184" t="s" s="2">
@@ -22024,7 +22010,7 @@
         <v>73</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>74</v>
@@ -22045,12 +22031,12 @@
         <v>73</v>
       </c>
       <c r="AL184" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -22076,14 +22062,14 @@
         <v>102</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M185" s="2"/>
       <c r="N185" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>73</v>
@@ -22132,7 +22118,7 @@
         <v>73</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>74</v>
@@ -22153,12 +22139,12 @@
         <v>73</v>
       </c>
       <c r="AL185" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -22184,14 +22170,14 @@
         <v>189</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M186" s="2"/>
       <c r="N186" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O186" t="s" s="2">
         <v>73</v>
@@ -22240,7 +22226,7 @@
         <v>73</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>74</v>
@@ -22261,12 +22247,12 @@
         <v>73</v>
       </c>
       <c r="AL186" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -22289,19 +22275,19 @@
         <v>83</v>
       </c>
       <c r="J187" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K187" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L187" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="K187" t="s" s="2">
+      <c r="M187" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L187" t="s" s="2">
+      <c r="N187" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="M187" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N187" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>73</v>
@@ -22350,7 +22336,7 @@
         <v>73</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>74</v>
@@ -22371,12 +22357,12 @@
         <v>73</v>
       </c>
       <c r="AL187" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -22402,16 +22388,16 @@
         <v>189</v>
       </c>
       <c r="K188" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L188" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M188" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L188" t="s" s="2">
+      <c r="N188" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="M188" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N188" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>73</v>
@@ -22460,7 +22446,7 @@
         <v>73</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>74</v>
@@ -22481,12 +22467,12 @@
         <v>73</v>
       </c>
       <c r="AL188" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -22509,13 +22495,13 @@
         <v>83</v>
       </c>
       <c r="J189" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M189" s="2"/>
       <c r="N189" s="2"/>
@@ -22566,7 +22552,7 @@
         <v>73</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>74</v>
@@ -22578,10 +22564,10 @@
         <v>73</v>
       </c>
       <c r="AI189" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AJ189" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AK189" t="s" s="2">
         <v>73</v>
@@ -22592,7 +22578,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -22698,7 +22684,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -22806,11 +22792,11 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D192" s="2"/>
       <c r="E192" t="s" s="2">
@@ -22832,10 +22818,10 @@
         <v>129</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="M192" t="s" s="2">
         <v>132</v>
@@ -22890,7 +22876,7 @@
         <v>73</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>74</v>
@@ -22916,7 +22902,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -22939,13 +22925,13 @@
         <v>83</v>
       </c>
       <c r="J193" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
@@ -22996,7 +22982,7 @@
         <v>73</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>82</v>
@@ -23011,7 +22997,7 @@
         <v>94</v>
       </c>
       <c r="AJ193" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AK193" t="s" s="2">
         <v>73</v>
@@ -23022,7 +23008,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -23048,10 +23034,10 @@
         <v>171</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="M194" s="2"/>
       <c r="N194" s="2"/>
@@ -23081,10 +23067,10 @@
         <v>216</v>
       </c>
       <c r="X194" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Y194" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="Z194" t="s" s="2">
         <v>73</v>
@@ -23102,7 +23088,7 @@
         <v>73</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>74</v>
@@ -23117,7 +23103,7 @@
         <v>94</v>
       </c>
       <c r="AJ194" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AK194" t="s" s="2">
         <v>73</v>
@@ -23128,7 +23114,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -23151,13 +23137,13 @@
         <v>83</v>
       </c>
       <c r="J195" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="M195" s="2"/>
       <c r="N195" s="2"/>
@@ -23208,7 +23194,7 @@
         <v>73</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>74</v>
@@ -23220,10 +23206,10 @@
         <v>73</v>
       </c>
       <c r="AI195" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AJ195" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="AK195" t="s" s="2">
         <v>73</v>
@@ -23234,7 +23220,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -23340,7 +23326,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -23448,11 +23434,11 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" t="s" s="2">
@@ -23474,10 +23460,10 @@
         <v>129</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="M198" t="s" s="2">
         <v>132</v>
@@ -23532,7 +23518,7 @@
         <v>73</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>74</v>
@@ -23558,7 +23544,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -23581,13 +23567,13 @@
         <v>83</v>
       </c>
       <c r="J199" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="K199" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="L199" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="K199" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="L199" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="M199" s="2"/>
       <c r="N199" s="2"/>
@@ -23638,7 +23624,7 @@
         <v>73</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>74</v>
@@ -23653,7 +23639,7 @@
         <v>94</v>
       </c>
       <c r="AJ199" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AK199" t="s" s="2">
         <v>73</v>
@@ -23664,7 +23650,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -23690,10 +23676,10 @@
         <v>197</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="M200" s="2"/>
       <c r="N200" s="2"/>
@@ -23744,7 +23730,7 @@
         <v>73</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>74</v>
@@ -23759,7 +23745,7 @@
         <v>94</v>
       </c>
       <c r="AJ200" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AK200" t="s" s="2">
         <v>73</v>
@@ -23770,7 +23756,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -23796,10 +23782,10 @@
         <v>203</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="M201" s="2"/>
       <c r="N201" s="2"/>
@@ -23850,7 +23836,7 @@
         <v>73</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>74</v>
@@ -23865,7 +23851,7 @@
         <v>94</v>
       </c>
       <c r="AJ201" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AK201" t="s" s="2">
         <v>73</v>
@@ -23876,7 +23862,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -23902,10 +23888,10 @@
         <v>171</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="M202" s="2"/>
       <c r="N202" s="2"/>
@@ -23935,10 +23921,10 @@
         <v>216</v>
       </c>
       <c r="X202" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="Y202" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="Z202" t="s" s="2">
         <v>73</v>
@@ -23956,7 +23942,7 @@
         <v>73</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>74</v>
@@ -23971,7 +23957,7 @@
         <v>94</v>
       </c>
       <c r="AJ202" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="AK202" t="s" s="2">
         <v>73</v>
@@ -23982,7 +23968,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -24005,13 +23991,13 @@
         <v>83</v>
       </c>
       <c r="J203" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="M203" s="2"/>
       <c r="N203" s="2"/>
@@ -24062,7 +24048,7 @@
         <v>73</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>74</v>
@@ -24074,10 +24060,10 @@
         <v>73</v>
       </c>
       <c r="AI203" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AJ203" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="AK203" t="s" s="2">
         <v>73</v>
@@ -24088,7 +24074,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -24194,7 +24180,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -24302,11 +24288,11 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" t="s" s="2">
@@ -24328,10 +24314,10 @@
         <v>129</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="M206" t="s" s="2">
         <v>132</v>
@@ -24386,7 +24372,7 @@
         <v>73</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>74</v>
@@ -24412,7 +24398,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -24438,10 +24424,10 @@
         <v>171</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="M207" s="2"/>
       <c r="N207" s="2"/>
@@ -24471,10 +24457,10 @@
         <v>216</v>
       </c>
       <c r="X207" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="Y207" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="Z207" t="s" s="2">
         <v>73</v>
@@ -24492,7 +24478,7 @@
         <v>73</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="AF207" t="s" s="2">
         <v>82</v>
@@ -24507,7 +24493,7 @@
         <v>94</v>
       </c>
       <c r="AJ207" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AK207" t="s" s="2">
         <v>73</v>
@@ -24518,7 +24504,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -24541,13 +24527,13 @@
         <v>83</v>
       </c>
       <c r="J208" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="K208" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="L208" t="s" s="2">
         <v>596</v>
-      </c>
-      <c r="K208" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="L208" t="s" s="2">
-        <v>598</v>
       </c>
       <c r="M208" s="2"/>
       <c r="N208" s="2"/>
@@ -24598,7 +24584,7 @@
         <v>73</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>74</v>
@@ -24613,7 +24599,7 @@
         <v>94</v>
       </c>
       <c r="AJ208" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="AK208" t="s" s="2">
         <v>73</v>

--- a/branches/mpd-r4b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7074" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6114" uniqueCount="584">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T17:12:02+00:00</t>
+    <t>2022-11-20T17:48:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1588,34 +1588,13 @@
     <t>EMA or ISO codes for country</t>
   </si>
   <si>
-    <t>MedicinalProductDefinition.name.countryLanguage.country.coding.id</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.name.countryLanguage.country.coding.extension</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.name.countryLanguage.country.coding.system</t>
-  </si>
-  <si>
-    <t>https://spor.ema.europa.eu/v1/lists/100000000002</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.name.countryLanguage.country.coding.version</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.name.countryLanguage.country.coding.code</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.name.countryLanguage.country.coding.display</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.name.countryLanguage.country.coding.userSelected</t>
+    <t>http://unicom-project.eu/fhir/ValueSet/country-ema-vs</t>
   </si>
   <si>
     <t>iso</t>
   </si>
   <si>
-    <t>https://www.hl7.org/fhir/valueset-country.html</t>
+    <t>http://unicom-project.eu/fhir/ValueSet/country-iso-vs</t>
   </si>
   <si>
     <t>MedicinalProductDefinition.name.countryLanguage.country.text</t>
@@ -1657,34 +1636,13 @@
     <t>MedicinalProductDefinition.name.countryLanguage.language.coding</t>
   </si>
   <si>
-    <t>MedicinalProductDefinition.name.countryLanguage.language.coding.id</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.name.countryLanguage.language.coding.extension</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.name.countryLanguage.language.coding.system</t>
-  </si>
-  <si>
-    <t>https://spor.ema.europa.eu/v1/lists/100000072057</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.name.countryLanguage.language.coding.version</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.name.countryLanguage.language.coding.code</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.name.countryLanguage.language.coding.display</t>
-  </si>
-  <si>
-    <t>MedicinalProductDefinition.name.countryLanguage.language.coding.userSelected</t>
+    <t>http://unicom-project.eu/fhir/ValueSet/language-ema-vs</t>
   </si>
   <si>
     <t>bcp</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/all-languages</t>
+    <t>http://unicom-project.eu/fhir/ValueSet/language-bcp-vs</t>
   </si>
   <si>
     <t>MedicinalProductDefinition.name.countryLanguage.language.text</t>
@@ -2161,7 +2119,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL208"/>
+  <dimension ref="A1:AL180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -18300,13 +18258,11 @@
         <v>73</v>
       </c>
       <c r="W150" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X150" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="X150" s="2"/>
       <c r="Y150" t="s" s="2">
-        <v>73</v>
+        <v>506</v>
       </c>
       <c r="Z150" t="s" s="2">
         <v>73</v>
@@ -18350,9 +18306,11 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="B151" s="2"/>
+        <v>504</v>
+      </c>
+      <c r="B151" t="s" s="2">
+        <v>507</v>
+      </c>
       <c r="C151" t="s" s="2">
         <v>73</v>
       </c>
@@ -18370,19 +18328,23 @@
         <v>73</v>
       </c>
       <c r="I151" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>152</v>
+        <v>237</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M151" s="2"/>
-      <c r="N151" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N151" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="O151" t="s" s="2">
         <v>73</v>
       </c>
@@ -18406,13 +18368,11 @@
         <v>73</v>
       </c>
       <c r="W151" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X151" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="X151" s="2"/>
       <c r="Y151" t="s" s="2">
-        <v>73</v>
+        <v>508</v>
       </c>
       <c r="Z151" t="s" s="2">
         <v>73</v>
@@ -18430,19 +18390,19 @@
         <v>73</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>154</v>
+        <v>241</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>73</v>
@@ -18451,23 +18411,23 @@
         <v>73</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>155</v>
+        <v>242</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F152" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G152" t="s" s="2">
         <v>73</v>
@@ -18476,21 +18436,23 @@
         <v>73</v>
       </c>
       <c r="I152" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>130</v>
+        <v>280</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>157</v>
+        <v>281</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N152" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N152" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="O152" t="s" s="2">
         <v>73</v>
       </c>
@@ -18526,31 +18488,31 @@
         <v>73</v>
       </c>
       <c r="AA152" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AB152" t="s" s="2">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="AC152" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD152" t="s" s="2">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>160</v>
+        <v>284</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>73</v>
@@ -18559,12 +18521,12 @@
         <v>73</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>155</v>
+        <v>285</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -18572,7 +18534,7 @@
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F153" t="s" s="2">
         <v>82</v>
@@ -18587,20 +18549,16 @@
         <v>83</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>246</v>
+        <v>511</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M153" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="M153" s="2"/>
+      <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
         <v>73</v>
       </c>
@@ -18609,7 +18567,7 @@
         <v>73</v>
       </c>
       <c r="R153" t="s" s="2">
-        <v>509</v>
+        <v>73</v>
       </c>
       <c r="S153" t="s" s="2">
         <v>73</v>
@@ -18624,13 +18582,13 @@
         <v>73</v>
       </c>
       <c r="W153" t="s" s="2">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="X153" t="s" s="2">
-        <v>73</v>
+        <v>499</v>
       </c>
       <c r="Y153" t="s" s="2">
-        <v>73</v>
+        <v>513</v>
       </c>
       <c r="Z153" t="s" s="2">
         <v>73</v>
@@ -18648,7 +18606,7 @@
         <v>73</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>251</v>
+        <v>510</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>74</v>
@@ -18663,18 +18621,18 @@
         <v>94</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>73</v>
+        <v>514</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>252</v>
+        <v>73</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -18682,7 +18640,7 @@
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F154" t="s" s="2">
         <v>82</v>
@@ -18697,17 +18655,15 @@
         <v>83</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>254</v>
+        <v>516</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M154" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="M154" s="2"/>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
         <v>73</v>
@@ -18732,13 +18688,13 @@
         <v>73</v>
       </c>
       <c r="W154" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="Z154" t="s" s="2">
         <v>73</v>
@@ -18756,10 +18712,10 @@
         <v>73</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>257</v>
+        <v>515</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>82</v>
@@ -18771,18 +18727,18 @@
         <v>94</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>73</v>
+        <v>518</v>
       </c>
       <c r="AK154" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>258</v>
+        <v>73</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -18802,21 +18758,19 @@
         <v>73</v>
       </c>
       <c r="I155" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>260</v>
+        <v>152</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>261</v>
+        <v>153</v>
       </c>
       <c r="M155" s="2"/>
-      <c r="N155" t="s" s="2">
-        <v>262</v>
-      </c>
+      <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
         <v>73</v>
       </c>
@@ -18864,7 +18818,7 @@
         <v>73</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>263</v>
+        <v>154</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>74</v>
@@ -18876,7 +18830,7 @@
         <v>73</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>73</v>
@@ -18885,23 +18839,23 @@
         <v>73</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>264</v>
+        <v>155</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F156" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G156" t="s" s="2">
         <v>73</v>
@@ -18910,21 +18864,21 @@
         <v>73</v>
       </c>
       <c r="I156" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>266</v>
+        <v>130</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M156" s="2"/>
-      <c r="N156" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="M156" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
         <v>73</v>
       </c>
@@ -18960,31 +18914,31 @@
         <v>73</v>
       </c>
       <c r="AA156" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AB156" t="s" s="2">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="AC156" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD156" t="s" s="2">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>269</v>
+        <v>160</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>73</v>
@@ -18993,12 +18947,12 @@
         <v>73</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>270</v>
+        <v>155</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -19006,10 +18960,10 @@
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F157" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G157" t="s" s="2">
         <v>73</v>
@@ -19021,19 +18975,19 @@
         <v>83</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>273</v>
+        <v>505</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>73</v>
@@ -19070,25 +19024,23 @@
         <v>73</v>
       </c>
       <c r="AA157" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB157" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="AB157" s="2"/>
       <c r="AC157" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD157" t="s" s="2">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>73</v>
@@ -19103,22 +19055,22 @@
         <v>73</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>278</v>
+        <v>242</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>514</v>
+        <v>373</v>
       </c>
       <c r="C158" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F158" t="s" s="2">
         <v>82</v>
@@ -19170,13 +19122,11 @@
         <v>73</v>
       </c>
       <c r="W158" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X158" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="X158" s="2"/>
       <c r="Y158" t="s" s="2">
-        <v>73</v>
+        <v>522</v>
       </c>
       <c r="Z158" t="s" s="2">
         <v>73</v>
@@ -19220,9 +19170,11 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="B159" s="2"/>
+        <v>521</v>
+      </c>
+      <c r="B159" t="s" s="2">
+        <v>523</v>
+      </c>
       <c r="C159" t="s" s="2">
         <v>73</v>
       </c>
@@ -19240,19 +19192,23 @@
         <v>73</v>
       </c>
       <c r="I159" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>152</v>
+        <v>237</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M159" s="2"/>
-      <c r="N159" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="M159" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N159" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="O159" t="s" s="2">
         <v>73</v>
       </c>
@@ -19276,13 +19232,11 @@
         <v>73</v>
       </c>
       <c r="W159" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X159" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="X159" s="2"/>
       <c r="Y159" t="s" s="2">
-        <v>73</v>
+        <v>524</v>
       </c>
       <c r="Z159" t="s" s="2">
         <v>73</v>
@@ -19300,19 +19254,19 @@
         <v>73</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>154</v>
+        <v>241</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI159" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ159" t="s" s="2">
         <v>73</v>
@@ -19321,23 +19275,23 @@
         <v>73</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>155</v>
+        <v>242</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F160" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G160" t="s" s="2">
         <v>73</v>
@@ -19346,21 +19300,23 @@
         <v>73</v>
       </c>
       <c r="I160" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>130</v>
+        <v>280</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>157</v>
+        <v>281</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N160" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N160" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="O160" t="s" s="2">
         <v>73</v>
       </c>
@@ -19396,31 +19352,31 @@
         <v>73</v>
       </c>
       <c r="AA160" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AB160" t="s" s="2">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="AC160" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD160" t="s" s="2">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>160</v>
+        <v>284</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ160" t="s" s="2">
         <v>73</v>
@@ -19429,12 +19385,12 @@
         <v>73</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>155</v>
+        <v>285</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -19442,10 +19398,10 @@
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F161" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G161" t="s" s="2">
         <v>73</v>
@@ -19457,20 +19413,16 @@
         <v>83</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>96</v>
+        <v>418</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>246</v>
+        <v>527</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="M161" s="2"/>
+      <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
         <v>73</v>
       </c>
@@ -19479,7 +19431,7 @@
         <v>73</v>
       </c>
       <c r="R161" t="s" s="2">
-        <v>515</v>
+        <v>73</v>
       </c>
       <c r="S161" t="s" s="2">
         <v>73</v>
@@ -19518,33 +19470,33 @@
         <v>73</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>251</v>
+        <v>526</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>94</v>
+        <v>421</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>73</v>
+        <v>529</v>
       </c>
       <c r="AK161" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>252</v>
+        <v>73</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -19564,20 +19516,18 @@
         <v>73</v>
       </c>
       <c r="I162" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J162" t="s" s="2">
         <v>189</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>254</v>
+        <v>152</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M162" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M162" s="2"/>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
         <v>73</v>
@@ -19626,7 +19576,7 @@
         <v>73</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>257</v>
+        <v>154</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>74</v>
@@ -19638,7 +19588,7 @@
         <v>73</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>73</v>
@@ -19647,23 +19597,23 @@
         <v>73</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>258</v>
+        <v>155</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F163" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G163" t="s" s="2">
         <v>73</v>
@@ -19672,21 +19622,21 @@
         <v>73</v>
       </c>
       <c r="I163" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M163" s="2"/>
-      <c r="N163" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="M163" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
         <v>73</v>
       </c>
@@ -19734,19 +19684,19 @@
         <v>73</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>263</v>
+        <v>160</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ163" t="s" s="2">
         <v>73</v>
@@ -19755,45 +19705,47 @@
         <v>73</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>264</v>
+        <v>155</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>512</v>
+        <v>532</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
-        <v>73</v>
+        <v>425</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F164" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G164" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H164" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I164" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>266</v>
+        <v>426</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M164" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="M164" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N164" t="s" s="2">
-        <v>268</v>
+        <v>138</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>73</v>
@@ -19842,19 +19794,19 @@
         <v>73</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>269</v>
+        <v>428</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ164" t="s" s="2">
         <v>73</v>
@@ -19863,12 +19815,12 @@
         <v>73</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>270</v>
+        <v>126</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>513</v>
+        <v>533</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -19876,7 +19828,7 @@
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F165" t="s" s="2">
         <v>82</v>
@@ -19891,20 +19843,16 @@
         <v>83</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>272</v>
+        <v>534</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>273</v>
+        <v>527</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M165" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N165" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="M165" s="2"/>
+      <c r="N165" s="2"/>
       <c r="O165" t="s" s="2">
         <v>73</v>
       </c>
@@ -19952,10 +19900,10 @@
         <v>73</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>277</v>
+        <v>533</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>82</v>
@@ -19967,18 +19915,18 @@
         <v>94</v>
       </c>
       <c r="AJ165" t="s" s="2">
-        <v>73</v>
+        <v>529</v>
       </c>
       <c r="AK165" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>278</v>
+        <v>73</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>516</v>
+        <v>536</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -20001,20 +19949,16 @@
         <v>83</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>280</v>
+        <v>537</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M166" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N166" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>538</v>
+      </c>
+      <c r="M166" s="2"/>
+      <c r="N166" s="2"/>
       <c r="O166" t="s" s="2">
         <v>73</v>
       </c>
@@ -20038,13 +19982,13 @@
         <v>73</v>
       </c>
       <c r="W166" t="s" s="2">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="X166" t="s" s="2">
-        <v>73</v>
+        <v>432</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>73</v>
+        <v>539</v>
       </c>
       <c r="Z166" t="s" s="2">
         <v>73</v>
@@ -20062,7 +20006,7 @@
         <v>73</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>284</v>
+        <v>536</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>74</v>
@@ -20077,18 +20021,18 @@
         <v>94</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>73</v>
+        <v>529</v>
       </c>
       <c r="AK166" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>285</v>
+        <v>73</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>517</v>
+        <v>540</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -20099,7 +20043,7 @@
         <v>74</v>
       </c>
       <c r="F167" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G167" t="s" s="2">
         <v>73</v>
@@ -20111,13 +20055,13 @@
         <v>83</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>171</v>
+        <v>418</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>518</v>
+        <v>541</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
@@ -20144,13 +20088,13 @@
         <v>73</v>
       </c>
       <c r="W167" t="s" s="2">
-        <v>216</v>
+        <v>73</v>
       </c>
       <c r="X167" t="s" s="2">
-        <v>499</v>
+        <v>73</v>
       </c>
       <c r="Y167" t="s" s="2">
-        <v>520</v>
+        <v>73</v>
       </c>
       <c r="Z167" t="s" s="2">
         <v>73</v>
@@ -20168,22 +20112,22 @@
         <v>73</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>517</v>
+        <v>540</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI167" t="s" s="2">
-        <v>94</v>
+        <v>421</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>521</v>
+        <v>543</v>
       </c>
       <c r="AK167" t="s" s="2">
         <v>73</v>
@@ -20194,7 +20138,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>522</v>
+        <v>544</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -20202,7 +20146,7 @@
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F168" t="s" s="2">
         <v>82</v>
@@ -20214,16 +20158,16 @@
         <v>73</v>
       </c>
       <c r="I168" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>523</v>
+        <v>152</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>524</v>
+        <v>153</v>
       </c>
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
@@ -20250,13 +20194,13 @@
         <v>73</v>
       </c>
       <c r="W168" t="s" s="2">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="X168" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="Y168" t="s" s="2">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="Z168" t="s" s="2">
         <v>73</v>
@@ -20274,10 +20218,10 @@
         <v>73</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>522</v>
+        <v>154</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>82</v>
@@ -20286,32 +20230,32 @@
         <v>73</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>525</v>
+        <v>73</v>
       </c>
       <c r="AK168" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>73</v>
+        <v>155</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>526</v>
+        <v>545</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F169" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G169" t="s" s="2">
         <v>73</v>
@@ -20323,15 +20267,17 @@
         <v>73</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M169" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="M169" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N169" s="2"/>
       <c r="O169" t="s" s="2">
         <v>73</v>
@@ -20380,19 +20326,19 @@
         <v>73</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ169" t="s" s="2">
         <v>73</v>
@@ -20406,11 +20352,11 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>527</v>
+        <v>546</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
-        <v>128</v>
+        <v>425</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
@@ -20423,24 +20369,26 @@
         <v>73</v>
       </c>
       <c r="H170" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I170" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J170" t="s" s="2">
         <v>129</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>130</v>
+        <v>426</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>157</v>
+        <v>427</v>
       </c>
       <c r="M170" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="N170" s="2"/>
+      <c r="N170" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O170" t="s" s="2">
         <v>73</v>
       </c>
@@ -20476,19 +20424,19 @@
         <v>73</v>
       </c>
       <c r="AA170" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AB170" t="s" s="2">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="AC170" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD170" t="s" s="2">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>160</v>
+        <v>428</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>74</v>
@@ -20509,12 +20457,12 @@
         <v>73</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>155</v>
+        <v>126</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>528</v>
+        <v>547</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -20522,10 +20470,10 @@
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F171" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G171" t="s" s="2">
         <v>73</v>
@@ -20537,20 +20485,16 @@
         <v>83</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>236</v>
+        <v>548</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>505</v>
+        <v>549</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M171" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N171" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="M171" s="2"/>
+      <c r="N171" s="2"/>
       <c r="O171" t="s" s="2">
         <v>73</v>
       </c>
@@ -20586,23 +20530,25 @@
         <v>73</v>
       </c>
       <c r="AA171" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AB171" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AB171" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AC171" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD171" t="s" s="2">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>241</v>
+        <v>547</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH171" t="s" s="2">
         <v>73</v>
@@ -20611,28 +20557,26 @@
         <v>94</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>73</v>
+        <v>551</v>
       </c>
       <c r="AK171" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>242</v>
+        <v>73</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="B172" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F172" t="s" s="2">
         <v>82</v>
@@ -20647,20 +20591,16 @@
         <v>83</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>237</v>
+        <v>553</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M172" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N172" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="M172" s="2"/>
+      <c r="N172" s="2"/>
       <c r="O172" t="s" s="2">
         <v>73</v>
       </c>
@@ -20708,13 +20648,13 @@
         <v>73</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>241</v>
+        <v>552</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH172" t="s" s="2">
         <v>73</v>
@@ -20723,18 +20663,18 @@
         <v>94</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>73</v>
+        <v>555</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>242</v>
+        <v>73</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>529</v>
+        <v>556</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -20745,7 +20685,7 @@
         <v>74</v>
       </c>
       <c r="F173" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G173" t="s" s="2">
         <v>73</v>
@@ -20754,16 +20694,16 @@
         <v>73</v>
       </c>
       <c r="I173" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>84</v>
+        <v>203</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>152</v>
+        <v>557</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>153</v>
+        <v>558</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
@@ -20814,44 +20754,44 @@
         <v>73</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>154</v>
+        <v>556</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>73</v>
+        <v>559</v>
       </c>
       <c r="AK173" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>155</v>
+        <v>73</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>530</v>
+        <v>560</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F174" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G174" t="s" s="2">
         <v>73</v>
@@ -20860,20 +20800,18 @@
         <v>73</v>
       </c>
       <c r="I174" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>130</v>
+        <v>561</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M174" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="M174" s="2"/>
       <c r="N174" s="2"/>
       <c r="O174" t="s" s="2">
         <v>73</v>
@@ -20898,57 +20836,57 @@
         <v>73</v>
       </c>
       <c r="W174" t="s" s="2">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="X174" t="s" s="2">
-        <v>73</v>
+        <v>563</v>
       </c>
       <c r="Y174" t="s" s="2">
-        <v>73</v>
+        <v>564</v>
       </c>
       <c r="Z174" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA174" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AB174" t="s" s="2">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="AC174" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD174" t="s" s="2">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>160</v>
+        <v>560</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ174" t="s" s="2">
-        <v>73</v>
+        <v>565</v>
       </c>
       <c r="AK174" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL174" t="s" s="2">
-        <v>155</v>
+        <v>73</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -20956,10 +20894,10 @@
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F175" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G175" t="s" s="2">
         <v>73</v>
@@ -20971,20 +20909,16 @@
         <v>83</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>96</v>
+        <v>418</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>246</v>
+        <v>567</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M175" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N175" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="M175" s="2"/>
+      <c r="N175" s="2"/>
       <c r="O175" t="s" s="2">
         <v>73</v>
       </c>
@@ -20993,7 +20927,7 @@
         <v>73</v>
       </c>
       <c r="R175" t="s" s="2">
-        <v>532</v>
+        <v>73</v>
       </c>
       <c r="S175" t="s" s="2">
         <v>73</v>
@@ -21032,33 +20966,33 @@
         <v>73</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>251</v>
+        <v>566</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG175" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH175" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>94</v>
+        <v>421</v>
       </c>
       <c r="AJ175" t="s" s="2">
-        <v>73</v>
+        <v>569</v>
       </c>
       <c r="AK175" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL175" t="s" s="2">
-        <v>252</v>
+        <v>73</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>533</v>
+        <v>570</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -21078,20 +21012,18 @@
         <v>73</v>
       </c>
       <c r="I176" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J176" t="s" s="2">
         <v>189</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>254</v>
+        <v>152</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M176" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M176" s="2"/>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
         <v>73</v>
@@ -21140,7 +21072,7 @@
         <v>73</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>257</v>
+        <v>154</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>74</v>
@@ -21152,7 +21084,7 @@
         <v>73</v>
       </c>
       <c r="AI176" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ176" t="s" s="2">
         <v>73</v>
@@ -21161,23 +21093,23 @@
         <v>73</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>258</v>
+        <v>155</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>534</v>
+        <v>571</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F177" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G177" t="s" s="2">
         <v>73</v>
@@ -21186,21 +21118,21 @@
         <v>73</v>
       </c>
       <c r="I177" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M177" s="2"/>
-      <c r="N177" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="M177" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N177" s="2"/>
       <c r="O177" t="s" s="2">
         <v>73</v>
       </c>
@@ -21248,19 +21180,19 @@
         <v>73</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>263</v>
+        <v>160</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG177" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH177" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI177" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ177" t="s" s="2">
         <v>73</v>
@@ -21269,45 +21201,47 @@
         <v>73</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>264</v>
+        <v>155</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>535</v>
+        <v>572</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
-        <v>73</v>
+        <v>425</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F178" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G178" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H178" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I178" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>266</v>
+        <v>426</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M178" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="M178" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N178" t="s" s="2">
-        <v>268</v>
+        <v>138</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>73</v>
@@ -21356,19 +21290,19 @@
         <v>73</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>269</v>
+        <v>428</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG178" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH178" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI178" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ178" t="s" s="2">
         <v>73</v>
@@ -21377,12 +21311,12 @@
         <v>73</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>270</v>
+        <v>126</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>536</v>
+        <v>573</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -21390,7 +21324,7 @@
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F179" t="s" s="2">
         <v>82</v>
@@ -21405,20 +21339,16 @@
         <v>83</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>272</v>
+        <v>171</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>273</v>
+        <v>574</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M179" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N179" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="M179" s="2"/>
+      <c r="N179" s="2"/>
       <c r="O179" t="s" s="2">
         <v>73</v>
       </c>
@@ -21442,13 +21372,13 @@
         <v>73</v>
       </c>
       <c r="W179" t="s" s="2">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="X179" t="s" s="2">
-        <v>73</v>
+        <v>576</v>
       </c>
       <c r="Y179" t="s" s="2">
-        <v>73</v>
+        <v>577</v>
       </c>
       <c r="Z179" t="s" s="2">
         <v>73</v>
@@ -21466,10 +21396,10 @@
         <v>73</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>277</v>
+        <v>573</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>82</v>
@@ -21481,22 +21411,20 @@
         <v>94</v>
       </c>
       <c r="AJ179" t="s" s="2">
-        <v>73</v>
+        <v>578</v>
       </c>
       <c r="AK179" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>278</v>
+        <v>73</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="B180" t="s" s="2">
-        <v>537</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
         <v>73</v>
       </c>
@@ -21517,20 +21445,16 @@
         <v>83</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>236</v>
+        <v>580</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>237</v>
+        <v>581</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M180" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N180" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="M180" s="2"/>
+      <c r="N180" s="2"/>
       <c r="O180" t="s" s="2">
         <v>73</v>
       </c>
@@ -21578,13 +21502,13 @@
         <v>73</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>241</v>
+        <v>579</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG180" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH180" t="s" s="2">
         <v>73</v>
@@ -21593,3018 +21517,12 @@
         <v>94</v>
       </c>
       <c r="AJ180" t="s" s="2">
-        <v>73</v>
+        <v>583</v>
       </c>
       <c r="AK180" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL180" t="s" s="2">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="B181" s="2"/>
-      <c r="C181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D181" s="2"/>
-      <c r="E181" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F181" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J181" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K181" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="L181" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M181" s="2"/>
-      <c r="N181" s="2"/>
-      <c r="O181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P181" s="2"/>
-      <c r="Q181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE181" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AF181" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG181" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK181" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL181" t="s" s="2">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="B182" s="2"/>
-      <c r="C182" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="D182" s="2"/>
-      <c r="E182" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F182" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G182" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H182" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I182" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J182" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K182" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L182" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M182" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N182" s="2"/>
-      <c r="O182" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P182" s="2"/>
-      <c r="Q182" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R182" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S182" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T182" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U182" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V182" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W182" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X182" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y182" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z182" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA182" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AB182" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AC182" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD182" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AE182" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AF182" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG182" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH182" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI182" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AJ182" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK182" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL182" t="s" s="2">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="B183" s="2"/>
-      <c r="C183" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D183" s="2"/>
-      <c r="E183" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F183" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G183" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H183" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I183" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J183" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K183" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="L183" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M183" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N183" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O183" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P183" s="2"/>
-      <c r="Q183" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R183" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="S183" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T183" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U183" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V183" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W183" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X183" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y183" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z183" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA183" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB183" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC183" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD183" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE183" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AF183" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG183" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH183" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI183" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ183" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK183" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL183" t="s" s="2">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="B184" s="2"/>
-      <c r="C184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D184" s="2"/>
-      <c r="E184" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F184" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I184" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J184" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="K184" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="L184" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M184" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N184" s="2"/>
-      <c r="O184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P184" s="2"/>
-      <c r="Q184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE184" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AF184" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG184" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI184" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK184" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL184" t="s" s="2">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="B185" s="2"/>
-      <c r="C185" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D185" s="2"/>
-      <c r="E185" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F185" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G185" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H185" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I185" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J185" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K185" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="L185" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M185" s="2"/>
-      <c r="N185" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O185" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P185" s="2"/>
-      <c r="Q185" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R185" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S185" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T185" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U185" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V185" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W185" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X185" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y185" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z185" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA185" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB185" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC185" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD185" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE185" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AF185" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG185" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH185" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI185" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ185" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK185" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL185" t="s" s="2">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="B186" s="2"/>
-      <c r="C186" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D186" s="2"/>
-      <c r="E186" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F186" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G186" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H186" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I186" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J186" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="K186" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="L186" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M186" s="2"/>
-      <c r="N186" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="O186" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P186" s="2"/>
-      <c r="Q186" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R186" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S186" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T186" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U186" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V186" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W186" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X186" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y186" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z186" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA186" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB186" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC186" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD186" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE186" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AF186" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG186" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH186" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI186" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ186" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK186" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL186" t="s" s="2">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="B187" s="2"/>
-      <c r="C187" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D187" s="2"/>
-      <c r="E187" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F187" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G187" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H187" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I187" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J187" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="K187" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="L187" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M187" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N187" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O187" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P187" s="2"/>
-      <c r="Q187" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R187" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S187" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T187" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U187" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V187" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W187" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X187" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y187" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z187" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA187" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB187" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC187" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD187" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE187" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AF187" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG187" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH187" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI187" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ187" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK187" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL187" t="s" s="2">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="B188" s="2"/>
-      <c r="C188" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D188" s="2"/>
-      <c r="E188" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F188" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G188" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H188" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I188" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J188" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="K188" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="L188" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M188" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N188" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O188" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P188" s="2"/>
-      <c r="Q188" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R188" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S188" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T188" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U188" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V188" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W188" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X188" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y188" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z188" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA188" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB188" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC188" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD188" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE188" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AF188" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG188" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH188" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI188" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ188" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK188" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL188" t="s" s="2">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="B189" s="2"/>
-      <c r="C189" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D189" s="2"/>
-      <c r="E189" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F189" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G189" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H189" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I189" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J189" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="K189" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="L189" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="M189" s="2"/>
-      <c r="N189" s="2"/>
-      <c r="O189" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P189" s="2"/>
-      <c r="Q189" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R189" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S189" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T189" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U189" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V189" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W189" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X189" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y189" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z189" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA189" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB189" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC189" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD189" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE189" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AF189" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG189" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH189" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI189" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AJ189" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="AK189" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL189" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="B190" s="2"/>
-      <c r="C190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D190" s="2"/>
-      <c r="E190" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F190" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J190" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="K190" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="L190" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M190" s="2"/>
-      <c r="N190" s="2"/>
-      <c r="O190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P190" s="2"/>
-      <c r="Q190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE190" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AF190" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG190" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK190" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL190" t="s" s="2">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="B191" s="2"/>
-      <c r="C191" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="D191" s="2"/>
-      <c r="E191" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F191" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G191" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H191" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I191" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J191" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K191" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L191" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M191" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N191" s="2"/>
-      <c r="O191" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P191" s="2"/>
-      <c r="Q191" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R191" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S191" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T191" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U191" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V191" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W191" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X191" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y191" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z191" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA191" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB191" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC191" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD191" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE191" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AF191" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG191" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH191" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI191" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AJ191" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK191" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL191" t="s" s="2">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="B192" s="2"/>
-      <c r="C192" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="D192" s="2"/>
-      <c r="E192" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F192" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G192" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H192" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I192" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J192" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K192" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="L192" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M192" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N192" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O192" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P192" s="2"/>
-      <c r="Q192" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R192" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S192" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T192" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U192" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V192" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W192" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X192" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y192" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z192" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA192" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB192" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC192" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD192" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE192" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AF192" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG192" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH192" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI192" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AJ192" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK192" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL192" t="s" s="2">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="B193" s="2"/>
-      <c r="C193" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D193" s="2"/>
-      <c r="E193" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F193" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G193" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H193" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I193" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J193" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="K193" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="L193" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="M193" s="2"/>
-      <c r="N193" s="2"/>
-      <c r="O193" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P193" s="2"/>
-      <c r="Q193" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R193" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S193" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T193" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U193" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V193" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W193" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X193" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y193" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z193" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA193" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB193" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC193" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD193" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE193" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AF193" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG193" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH193" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI193" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ193" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="AK193" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL193" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="B194" s="2"/>
-      <c r="C194" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D194" s="2"/>
-      <c r="E194" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F194" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G194" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H194" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I194" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J194" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="K194" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="L194" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="M194" s="2"/>
-      <c r="N194" s="2"/>
-      <c r="O194" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P194" s="2"/>
-      <c r="Q194" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R194" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S194" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T194" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U194" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V194" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W194" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="X194" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="Y194" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="Z194" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA194" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB194" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC194" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD194" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE194" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="AF194" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG194" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH194" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI194" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ194" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="AK194" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL194" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="B195" s="2"/>
-      <c r="C195" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D195" s="2"/>
-      <c r="E195" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F195" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G195" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H195" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I195" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J195" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="K195" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="L195" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="M195" s="2"/>
-      <c r="N195" s="2"/>
-      <c r="O195" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P195" s="2"/>
-      <c r="Q195" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R195" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S195" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T195" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U195" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V195" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W195" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X195" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y195" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z195" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA195" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB195" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC195" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD195" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE195" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="AF195" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG195" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH195" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI195" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AJ195" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="AK195" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL195" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="B196" s="2"/>
-      <c r="C196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D196" s="2"/>
-      <c r="E196" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F196" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J196" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="K196" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="L196" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M196" s="2"/>
-      <c r="N196" s="2"/>
-      <c r="O196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P196" s="2"/>
-      <c r="Q196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE196" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AF196" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG196" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK196" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL196" t="s" s="2">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="B197" s="2"/>
-      <c r="C197" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="D197" s="2"/>
-      <c r="E197" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F197" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G197" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H197" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I197" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J197" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K197" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L197" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M197" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N197" s="2"/>
-      <c r="O197" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P197" s="2"/>
-      <c r="Q197" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R197" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S197" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T197" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U197" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V197" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W197" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X197" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y197" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z197" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA197" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB197" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC197" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD197" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE197" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AF197" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG197" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH197" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI197" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AJ197" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK197" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL197" t="s" s="2">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="B198" s="2"/>
-      <c r="C198" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="D198" s="2"/>
-      <c r="E198" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F198" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G198" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H198" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I198" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J198" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K198" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="L198" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M198" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N198" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O198" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P198" s="2"/>
-      <c r="Q198" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R198" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S198" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T198" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U198" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V198" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W198" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X198" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y198" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z198" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA198" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB198" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC198" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD198" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE198" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AF198" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG198" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH198" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI198" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AJ198" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK198" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL198" t="s" s="2">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="B199" s="2"/>
-      <c r="C199" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D199" s="2"/>
-      <c r="E199" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F199" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G199" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H199" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I199" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J199" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="K199" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="L199" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="M199" s="2"/>
-      <c r="N199" s="2"/>
-      <c r="O199" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P199" s="2"/>
-      <c r="Q199" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R199" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S199" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T199" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U199" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V199" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W199" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X199" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y199" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z199" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA199" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB199" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC199" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD199" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE199" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="AF199" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG199" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH199" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI199" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ199" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="AK199" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL199" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="B200" s="2"/>
-      <c r="C200" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D200" s="2"/>
-      <c r="E200" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F200" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G200" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H200" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I200" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J200" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="K200" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="L200" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="M200" s="2"/>
-      <c r="N200" s="2"/>
-      <c r="O200" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P200" s="2"/>
-      <c r="Q200" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R200" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S200" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T200" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U200" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V200" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W200" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X200" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y200" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z200" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA200" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB200" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC200" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD200" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE200" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="AF200" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG200" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH200" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI200" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ200" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="AK200" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL200" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="B201" s="2"/>
-      <c r="C201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D201" s="2"/>
-      <c r="E201" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F201" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I201" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J201" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="K201" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="L201" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="M201" s="2"/>
-      <c r="N201" s="2"/>
-      <c r="O201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P201" s="2"/>
-      <c r="Q201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE201" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="AF201" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG201" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI201" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ201" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="AK201" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL201" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="B202" s="2"/>
-      <c r="C202" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D202" s="2"/>
-      <c r="E202" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F202" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G202" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H202" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I202" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J202" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="K202" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="L202" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="M202" s="2"/>
-      <c r="N202" s="2"/>
-      <c r="O202" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P202" s="2"/>
-      <c r="Q202" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R202" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S202" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T202" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U202" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V202" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W202" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="X202" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="Y202" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="Z202" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA202" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB202" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC202" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD202" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE202" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="AF202" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG202" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH202" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI202" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ202" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="AK202" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL202" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="B203" s="2"/>
-      <c r="C203" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D203" s="2"/>
-      <c r="E203" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F203" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G203" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H203" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I203" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J203" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="K203" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="L203" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="M203" s="2"/>
-      <c r="N203" s="2"/>
-      <c r="O203" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P203" s="2"/>
-      <c r="Q203" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R203" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S203" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T203" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U203" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V203" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W203" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X203" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y203" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z203" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA203" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB203" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC203" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD203" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE203" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="AF203" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG203" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH203" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI203" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AJ203" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="AK203" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL203" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="B204" s="2"/>
-      <c r="C204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D204" s="2"/>
-      <c r="E204" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F204" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J204" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="K204" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="L204" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M204" s="2"/>
-      <c r="N204" s="2"/>
-      <c r="O204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P204" s="2"/>
-      <c r="Q204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE204" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AF204" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG204" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK204" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL204" t="s" s="2">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="B205" s="2"/>
-      <c r="C205" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="D205" s="2"/>
-      <c r="E205" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F205" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G205" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H205" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I205" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J205" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K205" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L205" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M205" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N205" s="2"/>
-      <c r="O205" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P205" s="2"/>
-      <c r="Q205" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R205" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S205" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T205" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U205" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V205" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W205" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X205" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y205" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z205" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA205" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB205" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC205" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD205" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE205" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AF205" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG205" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH205" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI205" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AJ205" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK205" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL205" t="s" s="2">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="B206" s="2"/>
-      <c r="C206" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="D206" s="2"/>
-      <c r="E206" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F206" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G206" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H206" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I206" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J206" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K206" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="L206" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M206" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N206" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O206" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P206" s="2"/>
-      <c r="Q206" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R206" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S206" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T206" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U206" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V206" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W206" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X206" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y206" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z206" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA206" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB206" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC206" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD206" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE206" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AF206" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG206" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH206" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI206" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AJ206" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK206" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL206" t="s" s="2">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="B207" s="2"/>
-      <c r="C207" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D207" s="2"/>
-      <c r="E207" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F207" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G207" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H207" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I207" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J207" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="K207" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="L207" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="M207" s="2"/>
-      <c r="N207" s="2"/>
-      <c r="O207" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P207" s="2"/>
-      <c r="Q207" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R207" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S207" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T207" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U207" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V207" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W207" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="X207" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="Y207" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="Z207" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA207" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB207" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC207" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD207" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE207" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="AF207" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG207" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH207" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI207" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ207" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="AK207" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL207" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="B208" s="2"/>
-      <c r="C208" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D208" s="2"/>
-      <c r="E208" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F208" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G208" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H208" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I208" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J208" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="K208" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="L208" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="M208" s="2"/>
-      <c r="N208" s="2"/>
-      <c r="O208" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P208" s="2"/>
-      <c r="Q208" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R208" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S208" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T208" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U208" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V208" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W208" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X208" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y208" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z208" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA208" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB208" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC208" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD208" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE208" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="AF208" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG208" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH208" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI208" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ208" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="AK208" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL208" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/branches/mpd-r4b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6114" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7070" uniqueCount="602">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T17:48:06+00:00</t>
+    <t>2022-11-20T20:12:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1588,12 +1588,39 @@
     <t>EMA or ISO codes for country</t>
   </si>
   <si>
+    <t>MedicinalProductDefinition.name.countryLanguage.country.coding.id</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.name.countryLanguage.country.coding.extension</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.name.countryLanguage.country.coding.system</t>
+  </si>
+  <si>
+    <t>https://spor.ema.europa.eu/v1/lists/100000000002</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.name.countryLanguage.country.coding.version</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.name.countryLanguage.country.coding.code</t>
+  </si>
+  <si>
     <t>http://unicom-project.eu/fhir/ValueSet/country-ema-vs</t>
   </si>
   <si>
+    <t>MedicinalProductDefinition.name.countryLanguage.country.coding.display</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.name.countryLanguage.country.coding.userSelected</t>
+  </si>
+  <si>
     <t>iso</t>
   </si>
   <si>
+    <t>https://www.hl7.org/fhir/valueset-country.html</t>
+  </si>
+  <si>
     <t>http://unicom-project.eu/fhir/ValueSet/country-iso-vs</t>
   </si>
   <si>
@@ -1636,10 +1663,37 @@
     <t>MedicinalProductDefinition.name.countryLanguage.language.coding</t>
   </si>
   <si>
+    <t>MedicinalProductDefinition.name.countryLanguage.language.coding.id</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.name.countryLanguage.language.coding.extension</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.name.countryLanguage.language.coding.system</t>
+  </si>
+  <si>
+    <t>https://spor.ema.europa.eu/v1/lists/100000072057</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.name.countryLanguage.language.coding.version</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.name.countryLanguage.language.coding.code</t>
+  </si>
+  <si>
     <t>http://unicom-project.eu/fhir/ValueSet/language-ema-vs</t>
   </si>
   <si>
+    <t>MedicinalProductDefinition.name.countryLanguage.language.coding.display</t>
+  </si>
+  <si>
+    <t>MedicinalProductDefinition.name.countryLanguage.language.coding.userSelected</t>
+  </si>
+  <si>
     <t>bcp</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/all-languages</t>
   </si>
   <si>
     <t>http://unicom-project.eu/fhir/ValueSet/language-bcp-vs</t>
@@ -2119,7 +2173,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL180"/>
+  <dimension ref="A1:AL208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -18258,11 +18312,13 @@
         <v>73</v>
       </c>
       <c r="W150" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="X150" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X150" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y150" t="s" s="2">
-        <v>506</v>
+        <v>73</v>
       </c>
       <c r="Z150" t="s" s="2">
         <v>73</v>
@@ -18306,11 +18362,9 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="B151" t="s" s="2">
-        <v>507</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
         <v>73</v>
       </c>
@@ -18328,23 +18382,19 @@
         <v>73</v>
       </c>
       <c r="I151" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>236</v>
+        <v>84</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M151" s="2"/>
+      <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
         <v>73</v>
       </c>
@@ -18368,11 +18418,13 @@
         <v>73</v>
       </c>
       <c r="W151" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="X151" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X151" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y151" t="s" s="2">
-        <v>508</v>
+        <v>73</v>
       </c>
       <c r="Z151" t="s" s="2">
         <v>73</v>
@@ -18390,19 +18442,19 @@
         <v>73</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>241</v>
+        <v>154</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>73</v>
@@ -18411,23 +18463,23 @@
         <v>73</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>242</v>
+        <v>155</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F152" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G152" t="s" s="2">
         <v>73</v>
@@ -18436,23 +18488,21 @@
         <v>73</v>
       </c>
       <c r="I152" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>281</v>
+        <v>157</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
         <v>73</v>
       </c>
@@ -18488,31 +18538,31 @@
         <v>73</v>
       </c>
       <c r="AA152" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AB152" t="s" s="2">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="AC152" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD152" t="s" s="2">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>284</v>
+        <v>160</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>73</v>
@@ -18521,12 +18571,12 @@
         <v>73</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>285</v>
+        <v>155</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -18534,7 +18584,7 @@
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F153" t="s" s="2">
         <v>82</v>
@@ -18549,16 +18599,20 @@
         <v>83</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>511</v>
+        <v>246</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="M153" s="2"/>
-      <c r="N153" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="M153" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N153" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O153" t="s" s="2">
         <v>73</v>
       </c>
@@ -18567,7 +18621,7 @@
         <v>73</v>
       </c>
       <c r="R153" t="s" s="2">
-        <v>73</v>
+        <v>509</v>
       </c>
       <c r="S153" t="s" s="2">
         <v>73</v>
@@ -18582,13 +18636,13 @@
         <v>73</v>
       </c>
       <c r="W153" t="s" s="2">
-        <v>216</v>
+        <v>73</v>
       </c>
       <c r="X153" t="s" s="2">
-        <v>499</v>
+        <v>73</v>
       </c>
       <c r="Y153" t="s" s="2">
-        <v>513</v>
+        <v>73</v>
       </c>
       <c r="Z153" t="s" s="2">
         <v>73</v>
@@ -18606,7 +18660,7 @@
         <v>73</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>510</v>
+        <v>251</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>74</v>
@@ -18621,18 +18675,18 @@
         <v>94</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>514</v>
+        <v>73</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>73</v>
+        <v>252</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -18640,7 +18694,7 @@
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F154" t="s" s="2">
         <v>82</v>
@@ -18655,15 +18709,17 @@
         <v>83</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>516</v>
+        <v>254</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="M154" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="M154" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
         <v>73</v>
@@ -18688,13 +18744,13 @@
         <v>73</v>
       </c>
       <c r="W154" t="s" s="2">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="Z154" t="s" s="2">
         <v>73</v>
@@ -18712,10 +18768,10 @@
         <v>73</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>515</v>
+        <v>257</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>82</v>
@@ -18727,18 +18783,18 @@
         <v>94</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>518</v>
+        <v>73</v>
       </c>
       <c r="AK154" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>73</v>
+        <v>258</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -18758,19 +18814,21 @@
         <v>73</v>
       </c>
       <c r="I155" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>152</v>
+        <v>260</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>153</v>
+        <v>261</v>
       </c>
       <c r="M155" s="2"/>
-      <c r="N155" s="2"/>
+      <c r="N155" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O155" t="s" s="2">
         <v>73</v>
       </c>
@@ -18794,13 +18852,11 @@
         <v>73</v>
       </c>
       <c r="W155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X155" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="X155" s="2"/>
       <c r="Y155" t="s" s="2">
-        <v>73</v>
+        <v>512</v>
       </c>
       <c r="Z155" t="s" s="2">
         <v>73</v>
@@ -18818,7 +18874,7 @@
         <v>73</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>154</v>
+        <v>263</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>74</v>
@@ -18830,7 +18886,7 @@
         <v>73</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>73</v>
@@ -18839,23 +18895,23 @@
         <v>73</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>155</v>
+        <v>264</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F156" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G156" t="s" s="2">
         <v>73</v>
@@ -18864,21 +18920,21 @@
         <v>73</v>
       </c>
       <c r="I156" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>130</v>
+        <v>266</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M156" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N156" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="M156" s="2"/>
+      <c r="N156" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="O156" t="s" s="2">
         <v>73</v>
       </c>
@@ -18914,31 +18970,31 @@
         <v>73</v>
       </c>
       <c r="AA156" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="AB156" t="s" s="2">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="AC156" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD156" t="s" s="2">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>160</v>
+        <v>269</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>73</v>
@@ -18947,12 +19003,12 @@
         <v>73</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>155</v>
+        <v>270</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -18960,10 +19016,10 @@
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F157" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G157" t="s" s="2">
         <v>73</v>
@@ -18975,19 +19031,19 @@
         <v>83</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>505</v>
+        <v>273</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>73</v>
@@ -19024,23 +19080,25 @@
         <v>73</v>
       </c>
       <c r="AA157" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AB157" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AB157" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AC157" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD157" t="s" s="2">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>73</v>
@@ -19055,22 +19113,22 @@
         <v>73</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>242</v>
+        <v>278</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>373</v>
+        <v>515</v>
       </c>
       <c r="C158" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F158" t="s" s="2">
         <v>82</v>
@@ -19122,11 +19180,13 @@
         <v>73</v>
       </c>
       <c r="W158" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="X158" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X158" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y158" t="s" s="2">
-        <v>522</v>
+        <v>73</v>
       </c>
       <c r="Z158" t="s" s="2">
         <v>73</v>
@@ -19170,11 +19230,9 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="B159" t="s" s="2">
-        <v>523</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
         <v>73</v>
       </c>
@@ -19192,23 +19250,19 @@
         <v>73</v>
       </c>
       <c r="I159" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>236</v>
+        <v>84</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M159" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M159" s="2"/>
+      <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
         <v>73</v>
       </c>
@@ -19232,11 +19286,13 @@
         <v>73</v>
       </c>
       <c r="W159" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="X159" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X159" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y159" t="s" s="2">
-        <v>524</v>
+        <v>73</v>
       </c>
       <c r="Z159" t="s" s="2">
         <v>73</v>
@@ -19254,19 +19310,19 @@
         <v>73</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>241</v>
+        <v>154</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI159" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ159" t="s" s="2">
         <v>73</v>
@@ -19275,23 +19331,23 @@
         <v>73</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>242</v>
+        <v>155</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F160" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G160" t="s" s="2">
         <v>73</v>
@@ -19300,23 +19356,21 @@
         <v>73</v>
       </c>
       <c r="I160" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>281</v>
+        <v>157</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
         <v>73</v>
       </c>
@@ -19352,31 +19406,31 @@
         <v>73</v>
       </c>
       <c r="AA160" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AB160" t="s" s="2">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="AC160" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD160" t="s" s="2">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>284</v>
+        <v>160</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ160" t="s" s="2">
         <v>73</v>
@@ -19385,12 +19439,12 @@
         <v>73</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>285</v>
+        <v>155</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -19398,10 +19452,10 @@
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F161" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G161" t="s" s="2">
         <v>73</v>
@@ -19413,16 +19467,20 @@
         <v>83</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>418</v>
+        <v>96</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>527</v>
+        <v>246</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="M161" s="2"/>
-      <c r="N161" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="M161" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N161" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O161" t="s" s="2">
         <v>73</v>
       </c>
@@ -19431,7 +19489,7 @@
         <v>73</v>
       </c>
       <c r="R161" t="s" s="2">
-        <v>73</v>
+        <v>516</v>
       </c>
       <c r="S161" t="s" s="2">
         <v>73</v>
@@ -19470,33 +19528,33 @@
         <v>73</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>526</v>
+        <v>251</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>421</v>
+        <v>94</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>529</v>
+        <v>73</v>
       </c>
       <c r="AK161" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>73</v>
+        <v>252</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -19516,18 +19574,20 @@
         <v>73</v>
       </c>
       <c r="I162" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J162" t="s" s="2">
         <v>189</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>152</v>
+        <v>254</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M162" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="M162" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
         <v>73</v>
@@ -19576,7 +19636,7 @@
         <v>73</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>154</v>
+        <v>257</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>74</v>
@@ -19588,7 +19648,7 @@
         <v>73</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>73</v>
@@ -19597,23 +19657,23 @@
         <v>73</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>155</v>
+        <v>258</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F163" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G163" t="s" s="2">
         <v>73</v>
@@ -19622,21 +19682,21 @@
         <v>73</v>
       </c>
       <c r="I163" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M163" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N163" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="M163" s="2"/>
+      <c r="N163" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O163" t="s" s="2">
         <v>73</v>
       </c>
@@ -19660,13 +19720,11 @@
         <v>73</v>
       </c>
       <c r="W163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X163" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="X163" s="2"/>
       <c r="Y163" t="s" s="2">
-        <v>73</v>
+        <v>517</v>
       </c>
       <c r="Z163" t="s" s="2">
         <v>73</v>
@@ -19684,19 +19742,19 @@
         <v>73</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>160</v>
+        <v>263</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ163" t="s" s="2">
         <v>73</v>
@@ -19705,47 +19763,45 @@
         <v>73</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>155</v>
+        <v>264</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>532</v>
+        <v>513</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
-        <v>425</v>
+        <v>73</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F164" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G164" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H164" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I164" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>426</v>
+        <v>266</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M164" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="M164" s="2"/>
       <c r="N164" t="s" s="2">
-        <v>138</v>
+        <v>268</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>73</v>
@@ -19794,19 +19850,19 @@
         <v>73</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>428</v>
+        <v>269</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ164" t="s" s="2">
         <v>73</v>
@@ -19815,12 +19871,12 @@
         <v>73</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>126</v>
+        <v>270</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -19828,7 +19884,7 @@
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F165" t="s" s="2">
         <v>82</v>
@@ -19843,16 +19899,20 @@
         <v>83</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>534</v>
+        <v>272</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>527</v>
+        <v>273</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="M165" s="2"/>
-      <c r="N165" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="M165" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="N165" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O165" t="s" s="2">
         <v>73</v>
       </c>
@@ -19900,10 +19960,10 @@
         <v>73</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>533</v>
+        <v>277</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>82</v>
@@ -19915,18 +19975,18 @@
         <v>94</v>
       </c>
       <c r="AJ165" t="s" s="2">
-        <v>529</v>
+        <v>73</v>
       </c>
       <c r="AK165" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>73</v>
+        <v>278</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>536</v>
+        <v>518</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -19949,16 +20009,20 @@
         <v>83</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>537</v>
+        <v>280</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="M166" s="2"/>
-      <c r="N166" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="M166" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N166" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="O166" t="s" s="2">
         <v>73</v>
       </c>
@@ -19982,13 +20046,13 @@
         <v>73</v>
       </c>
       <c r="W166" t="s" s="2">
-        <v>216</v>
+        <v>73</v>
       </c>
       <c r="X166" t="s" s="2">
-        <v>432</v>
+        <v>73</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>539</v>
+        <v>73</v>
       </c>
       <c r="Z166" t="s" s="2">
         <v>73</v>
@@ -20006,7 +20070,7 @@
         <v>73</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>536</v>
+        <v>284</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>74</v>
@@ -20021,18 +20085,18 @@
         <v>94</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>529</v>
+        <v>73</v>
       </c>
       <c r="AK166" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>73</v>
+        <v>285</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -20043,7 +20107,7 @@
         <v>74</v>
       </c>
       <c r="F167" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G167" t="s" s="2">
         <v>73</v>
@@ -20055,13 +20119,13 @@
         <v>83</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>418</v>
+        <v>171</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
@@ -20088,13 +20152,13 @@
         <v>73</v>
       </c>
       <c r="W167" t="s" s="2">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="X167" t="s" s="2">
-        <v>73</v>
+        <v>499</v>
       </c>
       <c r="Y167" t="s" s="2">
-        <v>73</v>
+        <v>522</v>
       </c>
       <c r="Z167" t="s" s="2">
         <v>73</v>
@@ -20112,22 +20176,22 @@
         <v>73</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI167" t="s" s="2">
-        <v>421</v>
+        <v>94</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="AK167" t="s" s="2">
         <v>73</v>
@@ -20138,7 +20202,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -20146,7 +20210,7 @@
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F168" t="s" s="2">
         <v>82</v>
@@ -20158,16 +20222,16 @@
         <v>73</v>
       </c>
       <c r="I168" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>152</v>
+        <v>525</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>153</v>
+        <v>526</v>
       </c>
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
@@ -20194,13 +20258,13 @@
         <v>73</v>
       </c>
       <c r="W168" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="X168" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="Y168" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="Z168" t="s" s="2">
         <v>73</v>
@@ -20218,10 +20282,10 @@
         <v>73</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>154</v>
+        <v>524</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>82</v>
@@ -20230,32 +20294,32 @@
         <v>73</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>73</v>
+        <v>527</v>
       </c>
       <c r="AK168" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>155</v>
+        <v>73</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F169" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G169" t="s" s="2">
         <v>73</v>
@@ -20267,17 +20331,15 @@
         <v>73</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M169" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M169" s="2"/>
       <c r="N169" s="2"/>
       <c r="O169" t="s" s="2">
         <v>73</v>
@@ -20326,19 +20388,19 @@
         <v>73</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ169" t="s" s="2">
         <v>73</v>
@@ -20352,11 +20414,11 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
-        <v>425</v>
+        <v>128</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
@@ -20369,26 +20431,24 @@
         <v>73</v>
       </c>
       <c r="H170" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I170" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J170" t="s" s="2">
         <v>129</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>426</v>
+        <v>130</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>427</v>
+        <v>157</v>
       </c>
       <c r="M170" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="N170" t="s" s="2">
-        <v>138</v>
-      </c>
+      <c r="N170" s="2"/>
       <c r="O170" t="s" s="2">
         <v>73</v>
       </c>
@@ -20424,19 +20484,19 @@
         <v>73</v>
       </c>
       <c r="AA170" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AB170" t="s" s="2">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="AC170" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD170" t="s" s="2">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>428</v>
+        <v>160</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>74</v>
@@ -20457,12 +20517,12 @@
         <v>73</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>126</v>
+        <v>155</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>547</v>
+        <v>530</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -20470,10 +20530,10 @@
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F171" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G171" t="s" s="2">
         <v>73</v>
@@ -20485,16 +20545,20 @@
         <v>83</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>548</v>
+        <v>236</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>549</v>
+        <v>505</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="M171" s="2"/>
-      <c r="N171" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="M171" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N171" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="O171" t="s" s="2">
         <v>73</v>
       </c>
@@ -20530,25 +20594,23 @@
         <v>73</v>
       </c>
       <c r="AA171" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB171" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="AB171" s="2"/>
       <c r="AC171" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD171" t="s" s="2">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>547</v>
+        <v>241</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH171" t="s" s="2">
         <v>73</v>
@@ -20557,26 +20619,28 @@
         <v>94</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>551</v>
+        <v>73</v>
       </c>
       <c r="AK171" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>73</v>
+        <v>242</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="B172" s="2"/>
+        <v>530</v>
+      </c>
+      <c r="B172" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="C172" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F172" t="s" s="2">
         <v>82</v>
@@ -20591,16 +20655,20 @@
         <v>83</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>553</v>
+        <v>237</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="M172" s="2"/>
-      <c r="N172" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="M172" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N172" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="O172" t="s" s="2">
         <v>73</v>
       </c>
@@ -20648,13 +20716,13 @@
         <v>73</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>552</v>
+        <v>241</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH172" t="s" s="2">
         <v>73</v>
@@ -20663,18 +20731,18 @@
         <v>94</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>555</v>
+        <v>73</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>73</v>
+        <v>242</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -20685,7 +20753,7 @@
         <v>74</v>
       </c>
       <c r="F173" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G173" t="s" s="2">
         <v>73</v>
@@ -20694,16 +20762,16 @@
         <v>73</v>
       </c>
       <c r="I173" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>203</v>
+        <v>84</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>557</v>
+        <v>152</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>558</v>
+        <v>153</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
@@ -20754,44 +20822,44 @@
         <v>73</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>556</v>
+        <v>154</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>559</v>
+        <v>73</v>
       </c>
       <c r="AK173" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>73</v>
+        <v>155</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>560</v>
+        <v>532</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F174" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G174" t="s" s="2">
         <v>73</v>
@@ -20800,18 +20868,20 @@
         <v>73</v>
       </c>
       <c r="I174" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>561</v>
+        <v>130</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="M174" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="M174" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N174" s="2"/>
       <c r="O174" t="s" s="2">
         <v>73</v>
@@ -20836,57 +20906,57 @@
         <v>73</v>
       </c>
       <c r="W174" t="s" s="2">
-        <v>216</v>
+        <v>73</v>
       </c>
       <c r="X174" t="s" s="2">
-        <v>563</v>
+        <v>73</v>
       </c>
       <c r="Y174" t="s" s="2">
-        <v>564</v>
+        <v>73</v>
       </c>
       <c r="Z174" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA174" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AB174" t="s" s="2">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="AC174" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD174" t="s" s="2">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>560</v>
+        <v>160</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ174" t="s" s="2">
-        <v>565</v>
+        <v>73</v>
       </c>
       <c r="AK174" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL174" t="s" s="2">
-        <v>73</v>
+        <v>155</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>566</v>
+        <v>533</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -20894,10 +20964,10 @@
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F175" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G175" t="s" s="2">
         <v>73</v>
@@ -20909,16 +20979,20 @@
         <v>83</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>418</v>
+        <v>96</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>567</v>
+        <v>246</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="M175" s="2"/>
-      <c r="N175" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="M175" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N175" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O175" t="s" s="2">
         <v>73</v>
       </c>
@@ -20927,7 +21001,7 @@
         <v>73</v>
       </c>
       <c r="R175" t="s" s="2">
-        <v>73</v>
+        <v>534</v>
       </c>
       <c r="S175" t="s" s="2">
         <v>73</v>
@@ -20966,33 +21040,33 @@
         <v>73</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>566</v>
+        <v>251</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG175" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH175" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>421</v>
+        <v>94</v>
       </c>
       <c r="AJ175" t="s" s="2">
-        <v>569</v>
+        <v>73</v>
       </c>
       <c r="AK175" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL175" t="s" s="2">
-        <v>73</v>
+        <v>252</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>570</v>
+        <v>535</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -21012,18 +21086,20 @@
         <v>73</v>
       </c>
       <c r="I176" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J176" t="s" s="2">
         <v>189</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>152</v>
+        <v>254</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M176" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="M176" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
         <v>73</v>
@@ -21072,7 +21148,7 @@
         <v>73</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>154</v>
+        <v>257</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>74</v>
@@ -21084,7 +21160,7 @@
         <v>73</v>
       </c>
       <c r="AI176" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ176" t="s" s="2">
         <v>73</v>
@@ -21093,23 +21169,23 @@
         <v>73</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>155</v>
+        <v>258</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>571</v>
+        <v>536</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F177" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G177" t="s" s="2">
         <v>73</v>
@@ -21118,21 +21194,21 @@
         <v>73</v>
       </c>
       <c r="I177" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M177" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N177" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="M177" s="2"/>
+      <c r="N177" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O177" t="s" s="2">
         <v>73</v>
       </c>
@@ -21156,13 +21232,11 @@
         <v>73</v>
       </c>
       <c r="W177" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X177" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="X177" s="2"/>
       <c r="Y177" t="s" s="2">
-        <v>73</v>
+        <v>537</v>
       </c>
       <c r="Z177" t="s" s="2">
         <v>73</v>
@@ -21180,19 +21254,19 @@
         <v>73</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>160</v>
+        <v>263</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG177" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH177" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI177" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ177" t="s" s="2">
         <v>73</v>
@@ -21201,47 +21275,45 @@
         <v>73</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>155</v>
+        <v>264</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>572</v>
+        <v>538</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
-        <v>425</v>
+        <v>73</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F178" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G178" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H178" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I178" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>426</v>
+        <v>266</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M178" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="M178" s="2"/>
       <c r="N178" t="s" s="2">
-        <v>138</v>
+        <v>268</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>73</v>
@@ -21290,19 +21362,19 @@
         <v>73</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>428</v>
+        <v>269</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG178" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH178" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI178" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ178" t="s" s="2">
         <v>73</v>
@@ -21311,12 +21383,12 @@
         <v>73</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>126</v>
+        <v>270</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>573</v>
+        <v>539</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -21324,7 +21396,7 @@
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F179" t="s" s="2">
         <v>82</v>
@@ -21339,16 +21411,20 @@
         <v>83</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>171</v>
+        <v>272</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>574</v>
+        <v>273</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="M179" s="2"/>
-      <c r="N179" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="M179" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="N179" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O179" t="s" s="2">
         <v>73</v>
       </c>
@@ -21372,13 +21448,13 @@
         <v>73</v>
       </c>
       <c r="W179" t="s" s="2">
-        <v>216</v>
+        <v>73</v>
       </c>
       <c r="X179" t="s" s="2">
-        <v>576</v>
+        <v>73</v>
       </c>
       <c r="Y179" t="s" s="2">
-        <v>577</v>
+        <v>73</v>
       </c>
       <c r="Z179" t="s" s="2">
         <v>73</v>
@@ -21396,10 +21472,10 @@
         <v>73</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>573</v>
+        <v>277</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>82</v>
@@ -21411,20 +21487,22 @@
         <v>94</v>
       </c>
       <c r="AJ179" t="s" s="2">
-        <v>578</v>
+        <v>73</v>
       </c>
       <c r="AK179" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>73</v>
+        <v>278</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="B180" s="2"/>
+        <v>530</v>
+      </c>
+      <c r="B180" t="s" s="2">
+        <v>540</v>
+      </c>
       <c r="C180" t="s" s="2">
         <v>73</v>
       </c>
@@ -21445,16 +21523,20 @@
         <v>83</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>580</v>
+        <v>236</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>581</v>
+        <v>237</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="M180" s="2"/>
-      <c r="N180" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="M180" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N180" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="O180" t="s" s="2">
         <v>73</v>
       </c>
@@ -21502,13 +21584,13 @@
         <v>73</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>579</v>
+        <v>241</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG180" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH180" t="s" s="2">
         <v>73</v>
@@ -21517,12 +21599,3016 @@
         <v>94</v>
       </c>
       <c r="AJ180" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK180" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL180" t="s" s="2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="B181" s="2"/>
+      <c r="C181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D181" s="2"/>
+      <c r="E181" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J181" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K181" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L181" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M181" s="2"/>
+      <c r="N181" s="2"/>
+      <c r="O181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P181" s="2"/>
+      <c r="Q181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE181" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF181" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK181" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL181" t="s" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="B182" s="2"/>
+      <c r="C182" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="D182" s="2"/>
+      <c r="E182" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F182" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J182" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K182" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L182" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M182" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N182" s="2"/>
+      <c r="O182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P182" s="2"/>
+      <c r="Q182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA182" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AB182" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AC182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD182" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AE182" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AF182" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG182" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI182" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK182" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL182" t="s" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="B183" s="2"/>
+      <c r="C183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D183" s="2"/>
+      <c r="E183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I183" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J183" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K183" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L183" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M183" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N183" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="O183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P183" s="2"/>
+      <c r="Q183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R183" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="S183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE183" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AF183" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI183" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK183" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL183" t="s" s="2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="B184" s="2"/>
+      <c r="C184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D184" s="2"/>
+      <c r="E184" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I184" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J184" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K184" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L184" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M184" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N184" s="2"/>
+      <c r="O184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P184" s="2"/>
+      <c r="Q184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE184" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AF184" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI184" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK184" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL184" t="s" s="2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="B185" s="2"/>
+      <c r="C185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D185" s="2"/>
+      <c r="E185" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I185" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J185" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K185" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L185" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M185" s="2"/>
+      <c r="N185" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="O185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P185" s="2"/>
+      <c r="Q185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W185" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="X185" s="2"/>
+      <c r="Y185" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="Z185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE185" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AF185" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI185" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK185" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL185" t="s" s="2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="B186" s="2"/>
+      <c r="C186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D186" s="2"/>
+      <c r="E186" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I186" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J186" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K186" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L186" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M186" s="2"/>
+      <c r="N186" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="O186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P186" s="2"/>
+      <c r="Q186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE186" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AF186" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI186" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK186" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL186" t="s" s="2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="B187" s="2"/>
+      <c r="C187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D187" s="2"/>
+      <c r="E187" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I187" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J187" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K187" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L187" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M187" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="N187" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="O187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P187" s="2"/>
+      <c r="Q187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE187" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AF187" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI187" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK187" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL187" t="s" s="2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="B188" s="2"/>
+      <c r="C188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D188" s="2"/>
+      <c r="E188" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I188" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J188" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K188" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L188" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M188" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N188" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="O188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P188" s="2"/>
+      <c r="Q188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE188" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AF188" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI188" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK188" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL188" t="s" s="2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="B189" s="2"/>
+      <c r="C189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D189" s="2"/>
+      <c r="E189" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F189" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I189" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J189" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="K189" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="L189" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="M189" s="2"/>
+      <c r="N189" s="2"/>
+      <c r="O189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P189" s="2"/>
+      <c r="Q189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE189" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AF189" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG189" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI189" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AJ189" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AK189" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL189" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="B190" s="2"/>
+      <c r="C190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D190" s="2"/>
+      <c r="E190" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J190" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K190" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L190" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M190" s="2"/>
+      <c r="N190" s="2"/>
+      <c r="O190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P190" s="2"/>
+      <c r="Q190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE190" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF190" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK190" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL190" t="s" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="B191" s="2"/>
+      <c r="C191" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="D191" s="2"/>
+      <c r="E191" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F191" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J191" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K191" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L191" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M191" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N191" s="2"/>
+      <c r="O191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P191" s="2"/>
+      <c r="Q191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE191" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AF191" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG191" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI191" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK191" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL191" t="s" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="B192" s="2"/>
+      <c r="C192" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="D192" s="2"/>
+      <c r="E192" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F192" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H192" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I192" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J192" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K192" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L192" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M192" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N192" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P192" s="2"/>
+      <c r="Q192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE192" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AF192" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG192" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI192" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL192" t="s" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="B193" s="2"/>
+      <c r="C193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D193" s="2"/>
+      <c r="E193" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F193" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I193" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J193" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="K193" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="L193" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M193" s="2"/>
+      <c r="N193" s="2"/>
+      <c r="O193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P193" s="2"/>
+      <c r="Q193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE193" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AF193" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AG193" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI193" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ193" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AK193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL193" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="B194" s="2"/>
+      <c r="C194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D194" s="2"/>
+      <c r="E194" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F194" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I194" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J194" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="K194" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="L194" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="M194" s="2"/>
+      <c r="N194" s="2"/>
+      <c r="O194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P194" s="2"/>
+      <c r="Q194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W194" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="X194" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="Y194" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="Z194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE194" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AF194" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG194" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI194" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ194" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AK194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL194" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="B195" s="2"/>
+      <c r="C195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D195" s="2"/>
+      <c r="E195" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I195" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J195" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="K195" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="L195" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="M195" s="2"/>
+      <c r="N195" s="2"/>
+      <c r="O195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P195" s="2"/>
+      <c r="Q195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE195" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AF195" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI195" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AJ195" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AK195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL195" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="B196" s="2"/>
+      <c r="C196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D196" s="2"/>
+      <c r="E196" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J196" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K196" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L196" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M196" s="2"/>
+      <c r="N196" s="2"/>
+      <c r="O196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P196" s="2"/>
+      <c r="Q196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE196" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF196" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL196" t="s" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="B197" s="2"/>
+      <c r="C197" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="D197" s="2"/>
+      <c r="E197" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F197" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J197" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K197" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L197" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M197" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N197" s="2"/>
+      <c r="O197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P197" s="2"/>
+      <c r="Q197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE197" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AF197" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG197" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI197" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL197" t="s" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="B198" s="2"/>
+      <c r="C198" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="D198" s="2"/>
+      <c r="E198" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F198" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H198" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I198" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J198" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K198" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L198" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M198" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N198" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P198" s="2"/>
+      <c r="Q198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE198" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AF198" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG198" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI198" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL198" t="s" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="B199" s="2"/>
+      <c r="C199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D199" s="2"/>
+      <c r="E199" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F199" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I199" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J199" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="K199" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="L199" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="M199" s="2"/>
+      <c r="N199" s="2"/>
+      <c r="O199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P199" s="2"/>
+      <c r="Q199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE199" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AF199" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG199" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI199" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ199" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AK199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL199" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="B200" s="2"/>
+      <c r="C200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D200" s="2"/>
+      <c r="E200" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F200" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I200" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J200" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K200" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="L200" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="M200" s="2"/>
+      <c r="N200" s="2"/>
+      <c r="O200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P200" s="2"/>
+      <c r="Q200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE200" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AF200" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG200" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI200" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ200" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AK200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL200" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="B201" s="2"/>
+      <c r="C201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D201" s="2"/>
+      <c r="E201" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F201" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I201" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J201" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K201" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="L201" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="M201" s="2"/>
+      <c r="N201" s="2"/>
+      <c r="O201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P201" s="2"/>
+      <c r="Q201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE201" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AF201" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG201" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI201" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ201" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AK201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL201" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="B202" s="2"/>
+      <c r="C202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D202" s="2"/>
+      <c r="E202" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F202" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I202" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J202" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="K202" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="L202" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="M202" s="2"/>
+      <c r="N202" s="2"/>
+      <c r="O202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P202" s="2"/>
+      <c r="Q202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W202" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="X202" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="Y202" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="Z202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE202" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AF202" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG202" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI202" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ202" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="AK180" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL180" t="s" s="2">
+      <c r="AK202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL202" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="B203" s="2"/>
+      <c r="C203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D203" s="2"/>
+      <c r="E203" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F203" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I203" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J203" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="K203" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="L203" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="M203" s="2"/>
+      <c r="N203" s="2"/>
+      <c r="O203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P203" s="2"/>
+      <c r="Q203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE203" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AF203" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG203" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI203" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AJ203" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AK203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL203" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="B204" s="2"/>
+      <c r="C204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D204" s="2"/>
+      <c r="E204" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F204" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J204" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K204" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L204" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M204" s="2"/>
+      <c r="N204" s="2"/>
+      <c r="O204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P204" s="2"/>
+      <c r="Q204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE204" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF204" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG204" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL204" t="s" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="B205" s="2"/>
+      <c r="C205" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="D205" s="2"/>
+      <c r="E205" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F205" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J205" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K205" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L205" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M205" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N205" s="2"/>
+      <c r="O205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P205" s="2"/>
+      <c r="Q205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE205" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AF205" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG205" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI205" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL205" t="s" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="B206" s="2"/>
+      <c r="C206" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="D206" s="2"/>
+      <c r="E206" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F206" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H206" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I206" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J206" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K206" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L206" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M206" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N206" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P206" s="2"/>
+      <c r="Q206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE206" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AF206" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG206" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI206" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL206" t="s" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="B207" s="2"/>
+      <c r="C207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D207" s="2"/>
+      <c r="E207" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F207" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I207" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J207" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="K207" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="L207" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="M207" s="2"/>
+      <c r="N207" s="2"/>
+      <c r="O207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P207" s="2"/>
+      <c r="Q207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W207" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="X207" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="Y207" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="Z207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE207" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AF207" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AG207" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI207" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ207" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="AK207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL207" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="B208" s="2"/>
+      <c r="C208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D208" s="2"/>
+      <c r="E208" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F208" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I208" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J208" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="K208" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="L208" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="M208" s="2"/>
+      <c r="N208" s="2"/>
+      <c r="O208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P208" s="2"/>
+      <c r="Q208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE208" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AF208" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG208" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI208" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ208" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AK208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL208" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/branches/mpd-r4b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T20:12:04+00:00</t>
+    <t>2022-11-20T20:23:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T20:23:35+00:00</t>
+    <t>2022-11-21T10:47:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T10:47:26+00:00</t>
+    <t>2022-11-22T13:07:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T13:07:41+00:00</t>
+    <t>2022-11-22T20:42:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLMedicinalProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T20:42:27+00:00</t>
+    <t>2022-11-24T22:13:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
